--- a/CalculateStock.Web/Excel/StockData.xlsx
+++ b/CalculateStock.Web/Excel/StockData.xlsx
@@ -5,15 +5,14 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyWorkProject\zheshang\Stock\Stock\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyWorkProject\RelativeProfit\CalculateStock.Web\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140"/>
   </bookViews>
   <sheets>
-    <sheet name="作业" sheetId="1" r:id="rId1"/>
-    <sheet name="数据" sheetId="2" r:id="rId2"/>
+    <sheet name="数据" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -33,112 +32,34 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
-  <si>
-    <r>
-      <t>现有1年内上证指数、以及5个股票的行情数据，请这些股票，在</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>指定时间</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>段内的相对上证指数收益</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明：</t>
-  </si>
-  <si>
-    <t>上证指数行情数据、股票价格数据请详见数据Sheet。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>相对收益算法（单个股票）：</t>
-  </si>
-  <si>
-    <t>1 计算每日上证指数单日涨跌幅</t>
-  </si>
-  <si>
-    <t>2 计算每个股票单日涨跌幅</t>
-  </si>
-  <si>
-    <t>3 另，查询启示时间的累计涨跌幅=1</t>
-  </si>
-  <si>
-    <t>4 循环从起始时间后每天的数据，使</t>
-  </si>
-  <si>
-    <t>累计涨跌幅= ( (股票单日涨跌幅-上证指数涨跌幅)+1)*累计涨跌幅</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PS:</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计涨跌幅即相对收益</t>
-  </si>
-  <si>
-    <t>右侧为计算逻辑（以贵州茅台为例，时间选择为2019年3月到2019年5月），供参考</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>必备要求：</t>
-  </si>
-  <si>
-    <t>有前端页面输入以及展示，数据展示如果有可视化图形更佳</t>
-  </si>
-  <si>
-    <t>其他要求：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>请在代码中包含Readme.txt文件，主要用户描述如何配置开发环境，使代码能够顺利执行</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>日期</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>上证指数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>平安银行(000001)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>贵州茅台(600519)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>中信建投(601066)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>华兴源创(688001)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>同达创业(600647)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -149,28 +70,13 @@
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -200,9 +106,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -485,108 +390,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I208"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
@@ -595,4480 +398,4480 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="3"/>
-    <col min="3" max="7" width="17.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9" style="3"/>
+    <col min="1" max="1" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="2"/>
+    <col min="3" max="7" width="17.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>22</v>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>43525</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>2994.0050000000001</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>12.76</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>789.3</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>22.13</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="2">
         <v>14.18</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>43528</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>3027.5754999999999</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>12.99</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>781.86</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>23.41</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
         <v>14.43</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>43529</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>3054.2465999999999</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>13.06</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>779.78</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>25.75</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <v>14.43</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>43530</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>3102.0990999999999</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>13.08</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>768</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>28.33</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="2">
         <v>14.62</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>43531</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>3106.4178999999999</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>12.74</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>748.6</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>31.16</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <v>14.9</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>43532</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>2969.8613999999998</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>12.3</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>737.5</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>28.04</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="2">
         <v>14.1</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>43535</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>3026.9924999999998</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>12.32</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>758.54</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>25.9</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="2">
         <v>14.58</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>43536</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>3060.3072999999999</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>12.36</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>745.01</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>26.92</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="2">
         <v>14.6</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>43537</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>3026.9513000000002</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>12.37</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>754</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>27.75</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="2">
         <v>14.79</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>43538</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>2990.6849999999999</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>12.43</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>778</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>28.43</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="2">
         <v>14.15</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>43539</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>3021.7512000000002</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>12.5</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <v>777.3</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>26.91</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="2">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>43542</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>3096.4176000000002</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>12.91</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <v>810.09</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <v>26.5</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="2">
         <v>14.87</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="A14" s="1">
         <v>43543</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <v>3090.9749999999999</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>12.79</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="2">
         <v>792.61</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <v>25.66</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="2">
         <v>14.78</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="A15" s="1">
         <v>43544</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>3090.6403</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>12.75</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <v>792.8</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <v>26.13</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="2">
         <v>14.96</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="A16" s="1">
         <v>43545</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <v>3101.4549999999999</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <v>12.69</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="2">
         <v>785.75</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <v>25.74</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="2">
         <v>15.48</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+      <c r="A17" s="1">
         <v>43546</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <v>3104.1487000000002</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <v>12.59</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="2">
         <v>794</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="2">
         <v>24.5</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="2">
         <v>15.97</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+      <c r="A18" s="1">
         <v>43549</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <v>3043.0313000000001</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <v>12.11</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="2">
         <v>775.6</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="2">
         <v>24.2</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="2">
         <v>16.72</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+      <c r="A19" s="1">
         <v>43550</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <v>2997.0954000000002</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="2">
         <v>12.1</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="2">
         <v>773</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="2">
         <v>24.69</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="2">
         <v>16.2</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+      <c r="A20" s="1">
         <v>43551</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <v>3022.7195999999999</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2">
         <v>12.38</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="2">
         <v>788.5</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="2">
         <v>24.09</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="2">
         <v>16.100000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+      <c r="A21" s="1">
         <v>43552</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="2">
         <v>2994.9434000000001</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <v>12.22</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="2">
         <v>806.8</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="2">
         <v>23.23</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="2">
         <v>15.85</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+      <c r="A22" s="1">
         <v>43553</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="2">
         <v>3090.7579999999998</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="2">
         <v>12.82</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="2">
         <v>853.99</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="2">
         <v>25.55</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="2">
         <v>16.38</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+      <c r="A23" s="1">
         <v>43556</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="2">
         <v>3170.3609999999999</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="2">
         <v>13.18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="2">
         <v>859</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="2">
         <v>26.38</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="2">
         <v>16.68</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+      <c r="A24" s="1">
         <v>43557</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="2">
         <v>3176.8227000000002</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="2">
         <v>13.36</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="2">
         <v>850</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="2">
         <v>26.71</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="2">
         <v>16.45</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+      <c r="A25" s="1">
         <v>43558</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="2">
         <v>3216.2952</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="2">
         <v>13.44</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="2">
         <v>844.5</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="2">
         <v>26.77</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25" s="2">
         <v>16.97</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+      <c r="A26" s="1">
         <v>43559</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="2">
         <v>3246.5713999999998</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="2">
         <v>13.86</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="2">
         <v>865</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="2">
         <v>25.81</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="2">
         <v>16.98</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+      <c r="A27" s="1">
         <v>43563</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="2">
         <v>3244.8103000000001</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="2">
         <v>13.96</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="2">
         <v>900.2</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="2">
         <v>25.02</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27" s="2">
         <v>16.34</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+      <c r="A28" s="1">
         <v>43564</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="2">
         <v>3239.6639</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="2">
         <v>13.81</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="2">
         <v>905</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="2">
         <v>25.33</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G28" s="2">
         <v>16.91</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
+      <c r="A29" s="1">
         <v>43565</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="2">
         <v>3241.9299000000001</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="2">
         <v>13.73</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="2">
         <v>947.99</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="2">
         <v>25.42</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="2">
         <v>16.7</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+      <c r="A30" s="1">
         <v>43566</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="2">
         <v>3189.9618999999998</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="2">
         <v>13.54</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="2">
         <v>925.2</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="2">
         <v>24.2</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G30" s="2">
         <v>16.79</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
+      <c r="A31" s="1">
         <v>43567</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="2">
         <v>3188.6255999999998</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="2">
         <v>13.42</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="2">
         <v>914</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="2">
         <v>24.56</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G31" s="2">
         <v>17.829999999999998</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
+      <c r="A32" s="1">
         <v>43570</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="2">
         <v>3177.7865999999999</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="2">
         <v>13.69</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="2">
         <v>907</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="2">
         <v>24.16</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32" s="2">
         <v>17.399999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+      <c r="A33" s="1">
         <v>43571</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="2">
         <v>3253.5978</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="2">
         <v>14.58</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="2">
         <v>939.9</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="2">
         <v>24.53</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G33" s="2">
         <v>17.54</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
+      <c r="A34" s="1">
         <v>43572</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="2">
         <v>3263.1179000000002</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="2">
         <v>14.35</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="2">
         <v>952</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="2">
         <v>24.22</v>
       </c>
-      <c r="G34" s="3">
+      <c r="G34" s="2">
         <v>17.489999999999998</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
+      <c r="A35" s="1">
         <v>43573</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="2">
         <v>3250.2012</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="2">
         <v>14.34</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="2">
         <v>945.5</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="2">
         <v>23.78</v>
       </c>
-      <c r="G35" s="3">
+      <c r="G35" s="2">
         <v>17.34</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
+      <c r="A36" s="1">
         <v>43574</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="2">
         <v>3270.7973000000002</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="2">
         <v>14.73</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="2">
         <v>952.56</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="2">
         <v>24.14</v>
       </c>
-      <c r="G36" s="3">
+      <c r="G36" s="2">
         <v>17.260000000000002</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
+      <c r="A37" s="1">
         <v>43577</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="2">
         <v>3215.0426000000002</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="2">
         <v>14.15</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="2">
         <v>949.2</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37" s="2">
         <v>25.17</v>
       </c>
-      <c r="G37" s="3">
+      <c r="G37" s="2">
         <v>16.420000000000002</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
+      <c r="A38" s="1">
         <v>43578</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38" s="2">
         <v>3198.5938000000001</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="2">
         <v>14.07</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="2">
         <v>974.95</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38" s="2">
         <v>27.18</v>
       </c>
-      <c r="G38" s="3">
+      <c r="G38" s="2">
         <v>16.510000000000002</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
+      <c r="A39" s="1">
         <v>43579</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39" s="2">
         <v>3201.6136999999999</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="2">
         <v>14.44</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="2">
         <v>970</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E39" s="2">
         <v>26.76</v>
       </c>
-      <c r="G39" s="3">
+      <c r="G39" s="2">
         <v>16.53</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
+      <c r="A40" s="1">
         <v>43580</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" s="2">
         <v>3123.8261000000002</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="2">
         <v>14.13</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="2">
         <v>952.37</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E40" s="2">
         <v>27.02</v>
       </c>
-      <c r="G40" s="3">
+      <c r="G40" s="2">
         <v>15.19</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
+      <c r="A41" s="1">
         <v>43581</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="2">
         <v>3086.3989000000001</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="2">
         <v>13.79</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="2">
         <v>945</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E41" s="2">
         <v>27.75</v>
       </c>
-      <c r="G41" s="3">
+      <c r="G41" s="2">
         <v>15.64</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
+      <c r="A42" s="1">
         <v>43584</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42" s="2">
         <v>3062.4985000000001</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42" s="2">
         <v>14.1</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="2">
         <v>971.97</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="2">
         <v>24.98</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G42" s="2">
         <v>14.9</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
+      <c r="A43" s="1">
         <v>43585</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43" s="2">
         <v>3078.3389000000002</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="2">
         <v>13.85</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="2">
         <v>974</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E43" s="2">
         <v>23.36</v>
       </c>
-      <c r="G43" s="3">
+      <c r="G43" s="2">
         <v>15.16</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
+      <c r="A44" s="1">
         <v>43591</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44" s="2">
         <v>2906.4639999999999</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44" s="2">
         <v>12.87</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="2">
         <v>906</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44" s="2">
         <v>21.02</v>
       </c>
-      <c r="G44" s="3">
+      <c r="G44" s="2">
         <v>14.3</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
+      <c r="A45" s="1">
         <v>43592</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45" s="2">
         <v>2926.3908000000001</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45" s="2">
         <v>12.95</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="2">
         <v>890</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E45" s="2">
         <v>21.66</v>
       </c>
-      <c r="G45" s="3">
+      <c r="G45" s="2">
         <v>14.35</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
+      <c r="A46" s="1">
         <v>43593</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46" s="2">
         <v>2893.7566999999999</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46" s="2">
         <v>12.6</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="2">
         <v>884.4</v>
       </c>
-      <c r="E46" s="3">
+      <c r="E46" s="2">
         <v>20.67</v>
       </c>
-      <c r="G46" s="3">
+      <c r="G46" s="2">
         <v>14.51</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
+      <c r="A47" s="1">
         <v>43594</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47" s="2">
         <v>2850.9537</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47" s="2">
         <v>12.16</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="2">
         <v>858.81</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="2">
         <v>20.43</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G47" s="2">
         <v>14.2</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
+      <c r="A48" s="1">
         <v>43595</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B48" s="2">
         <v>2939.2105999999999</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48" s="2">
         <v>12.68</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="2">
         <v>907.12</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48" s="2">
         <v>21.84</v>
       </c>
-      <c r="G48" s="3">
+      <c r="G48" s="2">
         <v>14.7</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
+      <c r="A49" s="1">
         <v>43598</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B49" s="2">
         <v>2903.7130999999999</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C49" s="2">
         <v>12.3</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="2">
         <v>892</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E49" s="2">
         <v>21.35</v>
       </c>
-      <c r="G49" s="3">
+      <c r="G49" s="2">
         <v>14.78</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
+      <c r="A50" s="1">
         <v>43599</v>
       </c>
-      <c r="B50" s="3">
+      <c r="B50" s="2">
         <v>2883.6107000000002</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C50" s="2">
         <v>12.49</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D50" s="2">
         <v>886.57</v>
       </c>
-      <c r="E50" s="3">
+      <c r="E50" s="2">
         <v>21.31</v>
       </c>
-      <c r="G50" s="3">
+      <c r="G50" s="2">
         <v>14.68</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
+      <c r="A51" s="1">
         <v>43600</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B51" s="2">
         <v>2938.6781000000001</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C51" s="2">
         <v>12.92</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D51" s="2">
         <v>927</v>
       </c>
-      <c r="E51" s="3">
+      <c r="E51" s="2">
         <v>22.36</v>
       </c>
-      <c r="G51" s="3">
+      <c r="G51" s="2">
         <v>14.88</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="2">
+      <c r="A52" s="1">
         <v>43601</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B52" s="2">
         <v>2955.7109999999998</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C52" s="2">
         <v>12.85</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="2">
         <v>929.91</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E52" s="2">
         <v>22.17</v>
       </c>
-      <c r="G52" s="3">
+      <c r="G52" s="2">
         <v>14.91</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="2">
+      <c r="A53" s="1">
         <v>43602</v>
       </c>
-      <c r="B53" s="3">
+      <c r="B53" s="2">
         <v>2882.2962000000002</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C53" s="2">
         <v>12.44</v>
       </c>
-      <c r="D53" s="3">
+      <c r="D53" s="2">
         <v>906.79</v>
       </c>
-      <c r="E53" s="3">
+      <c r="E53" s="2">
         <v>21.11</v>
       </c>
-      <c r="G53" s="3">
+      <c r="G53" s="2">
         <v>14.05</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="2">
+      <c r="A54" s="1">
         <v>43605</v>
       </c>
-      <c r="B54" s="3">
+      <c r="B54" s="2">
         <v>2870.6046000000001</v>
       </c>
-      <c r="C54" s="3">
+      <c r="C54" s="2">
         <v>12.38</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D54" s="2">
         <v>884.96</v>
       </c>
-      <c r="E54" s="3">
+      <c r="E54" s="2">
         <v>21.74</v>
       </c>
-      <c r="G54" s="3">
+      <c r="G54" s="2">
         <v>14.27</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="2">
+      <c r="A55" s="1">
         <v>43606</v>
       </c>
-      <c r="B55" s="3">
+      <c r="B55" s="2">
         <v>2905.9688000000001</v>
       </c>
-      <c r="C55" s="3">
+      <c r="C55" s="2">
         <v>12.56</v>
       </c>
-      <c r="D55" s="3">
+      <c r="D55" s="2">
         <v>895</v>
       </c>
-      <c r="E55" s="3">
+      <c r="E55" s="2">
         <v>22.35</v>
       </c>
-      <c r="G55" s="3">
+      <c r="G55" s="2">
         <v>14.43</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="2">
+      <c r="A56" s="1">
         <v>43607</v>
       </c>
-      <c r="B56" s="3">
+      <c r="B56" s="2">
         <v>2891.7046</v>
       </c>
-      <c r="C56" s="3">
+      <c r="C56" s="2">
         <v>12.4</v>
       </c>
-      <c r="D56" s="3">
+      <c r="D56" s="2">
         <v>888</v>
       </c>
-      <c r="E56" s="3">
+      <c r="E56" s="2">
         <v>21.96</v>
       </c>
-      <c r="G56" s="3">
+      <c r="G56" s="2">
         <v>14.28</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="2">
+      <c r="A57" s="1">
         <v>43608</v>
       </c>
-      <c r="B57" s="3">
+      <c r="B57" s="2">
         <v>2852.5153</v>
       </c>
-      <c r="C57" s="3">
+      <c r="C57" s="2">
         <v>12.29</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="2">
         <v>861</v>
       </c>
-      <c r="E57" s="3">
+      <c r="E57" s="2">
         <v>22.19</v>
       </c>
-      <c r="G57" s="3">
+      <c r="G57" s="2">
         <v>14.16</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="2">
+      <c r="A58" s="1">
         <v>43609</v>
       </c>
-      <c r="B58" s="3">
+      <c r="B58" s="2">
         <v>2852.9947999999999</v>
       </c>
-      <c r="C58" s="3">
+      <c r="C58" s="2">
         <v>12.35</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="2">
         <v>878.5</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58" s="2">
         <v>22.5</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G58" s="2">
         <v>14.23</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="2">
+      <c r="A59" s="1">
         <v>43612</v>
       </c>
-      <c r="B59" s="3">
+      <c r="B59" s="2">
         <v>2892.3782000000001</v>
       </c>
-      <c r="C59" s="3">
+      <c r="C59" s="2">
         <v>12.37</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="2">
         <v>879</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E59" s="2">
         <v>23.76</v>
       </c>
-      <c r="G59" s="3">
+      <c r="G59" s="2">
         <v>14.4</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="2">
+      <c r="A60" s="1">
         <v>43613</v>
       </c>
-      <c r="B60" s="3">
+      <c r="B60" s="2">
         <v>2909.9106000000002</v>
       </c>
-      <c r="C60" s="3">
+      <c r="C60" s="2">
         <v>12.49</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60" s="2">
         <v>888</v>
       </c>
-      <c r="E60" s="3">
+      <c r="E60" s="2">
         <v>23.53</v>
       </c>
-      <c r="G60" s="3">
+      <c r="G60" s="2">
         <v>14.97</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="2">
+      <c r="A61" s="1">
         <v>43614</v>
       </c>
-      <c r="B61" s="3">
+      <c r="B61" s="2">
         <v>2914.6963999999998</v>
       </c>
-      <c r="C61" s="3">
+      <c r="C61" s="2">
         <v>12.4</v>
       </c>
-      <c r="D61" s="3">
+      <c r="D61" s="2">
         <v>911.91</v>
       </c>
-      <c r="E61" s="3">
+      <c r="E61" s="2">
         <v>23.97</v>
       </c>
-      <c r="G61" s="3">
+      <c r="G61" s="2">
         <v>15.02</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="2">
+      <c r="A62" s="1">
         <v>43615</v>
       </c>
-      <c r="B62" s="3">
+      <c r="B62" s="2">
         <v>2905.8054000000002</v>
       </c>
-      <c r="C62" s="3">
+      <c r="C62" s="2">
         <v>12.22</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D62" s="2">
         <v>905.3</v>
       </c>
-      <c r="E62" s="3">
+      <c r="E62" s="2">
         <v>23.52</v>
       </c>
-      <c r="G62" s="3">
+      <c r="G62" s="2">
         <v>14.96</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="2">
+      <c r="A63" s="1">
         <v>43616</v>
       </c>
-      <c r="B63" s="3">
+      <c r="B63" s="2">
         <v>2898.6961000000001</v>
       </c>
-      <c r="C63" s="3">
+      <c r="C63" s="2">
         <v>12.18</v>
       </c>
-      <c r="D63" s="3">
+      <c r="D63" s="2">
         <v>890</v>
       </c>
-      <c r="E63" s="3">
+      <c r="E63" s="2">
         <v>23</v>
       </c>
-      <c r="G63" s="3">
+      <c r="G63" s="2">
         <v>14.7</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="2">
+      <c r="A64" s="1">
         <v>43619</v>
       </c>
-      <c r="B64" s="3">
+      <c r="B64" s="2">
         <v>2890.0808999999999</v>
       </c>
-      <c r="C64" s="3">
+      <c r="C64" s="2">
         <v>11.9</v>
       </c>
-      <c r="D64" s="3">
+      <c r="D64" s="2">
         <v>892</v>
       </c>
-      <c r="E64" s="3">
+      <c r="E64" s="2">
         <v>23.43</v>
       </c>
-      <c r="G64" s="3">
+      <c r="G64" s="2">
         <v>14.68</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="2">
+      <c r="A65" s="1">
         <v>43620</v>
       </c>
-      <c r="B65" s="3">
+      <c r="B65" s="2">
         <v>2862.2802999999999</v>
       </c>
-      <c r="C65" s="3">
+      <c r="C65" s="2">
         <v>11.85</v>
       </c>
-      <c r="D65" s="3">
+      <c r="D65" s="2">
         <v>875.3</v>
       </c>
-      <c r="E65" s="3">
+      <c r="E65" s="2">
         <v>23.4</v>
       </c>
-      <c r="G65" s="3">
+      <c r="G65" s="2">
         <v>14.35</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="2">
+      <c r="A66" s="1">
         <v>43621</v>
       </c>
-      <c r="B66" s="3">
+      <c r="B66" s="2">
         <v>2861.4180999999999</v>
       </c>
-      <c r="C66" s="3">
+      <c r="C66" s="2">
         <v>11.97</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="2">
         <v>871.6</v>
       </c>
-      <c r="E66" s="3">
+      <c r="E66" s="2">
         <v>23.28</v>
       </c>
-      <c r="G66" s="3">
+      <c r="G66" s="2">
         <v>14.48</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="2">
+      <c r="A67" s="1">
         <v>43622</v>
       </c>
-      <c r="B67" s="3">
+      <c r="B67" s="2">
         <v>2827.7977999999998</v>
       </c>
-      <c r="C67" s="3">
+      <c r="C67" s="2">
         <v>11.92</v>
       </c>
-      <c r="D67" s="3">
+      <c r="D67" s="2">
         <v>862.13</v>
       </c>
-      <c r="E67" s="3">
+      <c r="E67" s="2">
         <v>22.73</v>
       </c>
-      <c r="G67" s="3">
+      <c r="G67" s="2">
         <v>14.13</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="2">
+      <c r="A68" s="1">
         <v>43626</v>
       </c>
-      <c r="B68" s="3">
+      <c r="B68" s="2">
         <v>2852.1302000000001</v>
       </c>
-      <c r="C68" s="3">
+      <c r="C68" s="2">
         <v>12.34</v>
       </c>
-      <c r="D68" s="3">
+      <c r="D68" s="2">
         <v>871.08</v>
       </c>
-      <c r="E68" s="3">
+      <c r="E68" s="2">
         <v>20.84</v>
       </c>
-      <c r="G68" s="3">
+      <c r="G68" s="2">
         <v>13.9</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="2">
+      <c r="A69" s="1">
         <v>43627</v>
       </c>
-      <c r="B69" s="3">
+      <c r="B69" s="2">
         <v>2925.7161999999998</v>
       </c>
-      <c r="C69" s="3">
+      <c r="C69" s="2">
         <v>12.65</v>
       </c>
-      <c r="D69" s="3">
+      <c r="D69" s="2">
         <v>910.89</v>
       </c>
-      <c r="E69" s="3">
+      <c r="E69" s="2">
         <v>22.03</v>
       </c>
-      <c r="G69" s="3">
+      <c r="G69" s="2">
         <v>14.43</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="2">
+      <c r="A70" s="1">
         <v>43628</v>
       </c>
-      <c r="B70" s="3">
+      <c r="B70" s="2">
         <v>2909.3796000000002</v>
       </c>
-      <c r="C70" s="3">
+      <c r="C70" s="2">
         <v>12.57</v>
       </c>
-      <c r="D70" s="3">
+      <c r="D70" s="2">
         <v>906.7</v>
       </c>
-      <c r="E70" s="3">
+      <c r="E70" s="2">
         <v>21.31</v>
       </c>
-      <c r="G70" s="3">
+      <c r="G70" s="2">
         <v>14.36</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="2">
+      <c r="A71" s="1">
         <v>43629</v>
       </c>
-      <c r="B71" s="3">
+      <c r="B71" s="2">
         <v>2910.7406000000001</v>
       </c>
-      <c r="C71" s="3">
+      <c r="C71" s="2">
         <v>12.59</v>
       </c>
-      <c r="D71" s="3">
+      <c r="D71" s="2">
         <v>910</v>
       </c>
-      <c r="E71" s="3">
+      <c r="E71" s="2">
         <v>21.04</v>
       </c>
-      <c r="G71" s="3">
+      <c r="G71" s="2">
         <v>14.37</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="2">
+      <c r="A72" s="1">
         <v>43630</v>
       </c>
-      <c r="B72" s="3">
+      <c r="B72" s="2">
         <v>2881.9742999999999</v>
       </c>
-      <c r="C72" s="3">
+      <c r="C72" s="2">
         <v>12.49</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="2">
         <v>913</v>
       </c>
-      <c r="E72" s="3">
+      <c r="E72" s="2">
         <v>20.3</v>
       </c>
-      <c r="G72" s="3">
+      <c r="G72" s="2">
         <v>13.99</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="2">
+      <c r="A73" s="1">
         <v>43633</v>
       </c>
-      <c r="B73" s="3">
+      <c r="B73" s="2">
         <v>2887.6221</v>
       </c>
-      <c r="C73" s="3">
+      <c r="C73" s="2">
         <v>12.67</v>
       </c>
-      <c r="D73" s="3">
+      <c r="D73" s="2">
         <v>911.6</v>
       </c>
-      <c r="E73" s="3">
+      <c r="E73" s="2">
         <v>20.07</v>
       </c>
-      <c r="G73" s="3">
+      <c r="G73" s="2">
         <v>13.6</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="2">
+      <c r="A74" s="1">
         <v>43634</v>
       </c>
-      <c r="B74" s="3">
+      <c r="B74" s="2">
         <v>2890.1579999999999</v>
       </c>
-      <c r="C74" s="3">
+      <c r="C74" s="2">
         <v>12.8</v>
       </c>
-      <c r="D74" s="3">
+      <c r="D74" s="2">
         <v>917</v>
       </c>
-      <c r="E74" s="3">
+      <c r="E74" s="2">
         <v>19.8</v>
       </c>
-      <c r="G74" s="3">
+      <c r="G74" s="2">
         <v>13.81</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="2">
+      <c r="A75" s="1">
         <v>43635</v>
       </c>
-      <c r="B75" s="3">
+      <c r="B75" s="2">
         <v>2917.8029000000001</v>
       </c>
-      <c r="C75" s="3">
+      <c r="C75" s="2">
         <v>13.07</v>
       </c>
-      <c r="D75" s="3">
+      <c r="D75" s="2">
         <v>932.01</v>
       </c>
-      <c r="E75" s="3">
+      <c r="E75" s="2">
         <v>20.27</v>
       </c>
-      <c r="G75" s="3">
+      <c r="G75" s="2">
         <v>14.08</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="2">
+      <c r="A76" s="1">
         <v>43636</v>
       </c>
-      <c r="B76" s="3">
+      <c r="B76" s="2">
         <v>2987.1185999999998</v>
       </c>
-      <c r="C76" s="3">
+      <c r="C76" s="2">
         <v>13.8</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="2">
         <v>975</v>
       </c>
-      <c r="E76" s="3">
+      <c r="E76" s="2">
         <v>22.3</v>
       </c>
-      <c r="G76" s="3">
+      <c r="G76" s="2">
         <v>14.35</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="2">
+      <c r="A77" s="1">
         <v>43637</v>
       </c>
-      <c r="B77" s="3">
+      <c r="B77" s="2">
         <v>3001.9802</v>
       </c>
-      <c r="C77" s="3">
+      <c r="C77" s="2">
         <v>13.64</v>
       </c>
-      <c r="D77" s="3">
+      <c r="D77" s="2">
         <v>976.3</v>
       </c>
-      <c r="E77" s="3">
+      <c r="E77" s="2">
         <v>24.53</v>
       </c>
-      <c r="G77" s="3">
+      <c r="G77" s="2">
         <v>15</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="2">
+      <c r="A78" s="1">
         <v>43640</v>
       </c>
-      <c r="B78" s="3">
+      <c r="B78" s="2">
         <v>3008.1478999999999</v>
       </c>
-      <c r="C78" s="3">
+      <c r="C78" s="2">
         <v>13.69</v>
       </c>
-      <c r="D78" s="3">
+      <c r="D78" s="2">
         <v>987.1</v>
       </c>
-      <c r="E78" s="3">
+      <c r="E78" s="2">
         <v>25.04</v>
       </c>
-      <c r="G78" s="3">
+      <c r="G78" s="2">
         <v>15.85</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="2">
+      <c r="A79" s="1">
         <v>43641</v>
       </c>
-      <c r="B79" s="3">
+      <c r="B79" s="2">
         <v>2982.0738000000001</v>
       </c>
-      <c r="C79" s="3">
+      <c r="C79" s="2">
         <v>13.43</v>
       </c>
-      <c r="D79" s="3">
+      <c r="D79" s="2">
         <v>982.98</v>
       </c>
-      <c r="E79" s="3">
+      <c r="E79" s="2">
         <v>26.48</v>
       </c>
-      <c r="G79" s="3">
+      <c r="G79" s="2">
         <v>15.52</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="2">
+      <c r="A80" s="1">
         <v>43642</v>
       </c>
-      <c r="B80" s="3">
+      <c r="B80" s="2">
         <v>2976.2837</v>
       </c>
-      <c r="C80" s="3">
+      <c r="C80" s="2">
         <v>13.37</v>
       </c>
-      <c r="D80" s="3">
+      <c r="D80" s="2">
         <v>979.86</v>
       </c>
-      <c r="E80" s="3">
+      <c r="E80" s="2">
         <v>23.83</v>
       </c>
-      <c r="G80" s="3">
+      <c r="G80" s="2">
         <v>15.4</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="2">
+      <c r="A81" s="1">
         <v>43643</v>
       </c>
-      <c r="B81" s="3">
+      <c r="B81" s="2">
         <v>2996.7926000000002</v>
       </c>
-      <c r="C81" s="3">
+      <c r="C81" s="2">
         <v>13.71</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="2">
         <v>996.35</v>
       </c>
-      <c r="E81" s="3">
+      <c r="E81" s="2">
         <v>22.07</v>
       </c>
-      <c r="G81" s="3">
+      <c r="G81" s="2">
         <v>15.43</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="2">
+      <c r="A82" s="1">
         <v>43644</v>
       </c>
-      <c r="B82" s="3">
+      <c r="B82" s="2">
         <v>2978.8784000000001</v>
       </c>
-      <c r="C82" s="3">
+      <c r="C82" s="2">
         <v>13.78</v>
       </c>
-      <c r="D82" s="3">
+      <c r="D82" s="2">
         <v>984</v>
       </c>
-      <c r="E82" s="3">
+      <c r="E82" s="2">
         <v>21.08</v>
       </c>
-      <c r="G82" s="3">
+      <c r="G82" s="2">
         <v>15.12</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="2">
+      <c r="A83" s="1">
         <v>43647</v>
       </c>
-      <c r="B83" s="3">
+      <c r="B83" s="2">
         <v>3044.9027999999998</v>
       </c>
-      <c r="C83" s="3">
+      <c r="C83" s="2">
         <v>13.93</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83" s="2">
         <v>1031.8599999999999</v>
       </c>
-      <c r="E83" s="3">
+      <c r="E83" s="2">
         <v>21.37</v>
       </c>
-      <c r="G83" s="3">
+      <c r="G83" s="2">
         <v>15.35</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="2">
+      <c r="A84" s="1">
         <v>43648</v>
       </c>
-      <c r="B84" s="3">
+      <c r="B84" s="2">
         <v>3043.9427999999998</v>
       </c>
-      <c r="C84" s="3">
+      <c r="C84" s="2">
         <v>14.18</v>
       </c>
-      <c r="D84" s="3">
+      <c r="D84" s="2">
         <v>1025</v>
       </c>
-      <c r="E84" s="3">
+      <c r="E84" s="2">
         <v>21.51</v>
       </c>
-      <c r="G84" s="3">
+      <c r="G84" s="2">
         <v>15.15</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="2">
+      <c r="A85" s="1">
         <v>43649</v>
       </c>
-      <c r="B85" s="3">
+      <c r="B85" s="2">
         <v>3015.2633000000001</v>
       </c>
-      <c r="C85" s="3">
+      <c r="C85" s="2">
         <v>14.01</v>
       </c>
-      <c r="D85" s="3">
+      <c r="D85" s="2">
         <v>987.9</v>
       </c>
-      <c r="E85" s="3">
+      <c r="E85" s="2">
         <v>21.27</v>
       </c>
-      <c r="G85" s="3">
+      <c r="G85" s="2">
         <v>14.86</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="2">
+      <c r="A86" s="1">
         <v>43650</v>
       </c>
-      <c r="B86" s="3">
+      <c r="B86" s="2">
         <v>3005.2487999999998</v>
       </c>
-      <c r="C86" s="3">
+      <c r="C86" s="2">
         <v>13.99</v>
       </c>
-      <c r="D86" s="3">
+      <c r="D86" s="2">
         <v>981.2</v>
       </c>
-      <c r="E86" s="3">
+      <c r="E86" s="2">
         <v>21.09</v>
       </c>
-      <c r="G86" s="3">
+      <c r="G86" s="2">
         <v>15</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="2">
+      <c r="A87" s="1">
         <v>43651</v>
       </c>
-      <c r="B87" s="3">
+      <c r="B87" s="2">
         <v>3011.0587999999998</v>
       </c>
-      <c r="C87" s="3">
+      <c r="C87" s="2">
         <v>13.92</v>
       </c>
-      <c r="D87" s="3">
+      <c r="D87" s="2">
         <v>999.82</v>
       </c>
-      <c r="E87" s="3">
+      <c r="E87" s="2">
         <v>20.95</v>
       </c>
-      <c r="G87" s="3">
+      <c r="G87" s="2">
         <v>15</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="2">
+      <c r="A88" s="1">
         <v>43654</v>
       </c>
-      <c r="B88" s="3">
+      <c r="B88" s="2">
         <v>2933.3634000000002</v>
       </c>
-      <c r="C88" s="3">
+      <c r="C88" s="2">
         <v>13.59</v>
       </c>
-      <c r="D88" s="3">
+      <c r="D88" s="2">
         <v>984.86</v>
       </c>
-      <c r="E88" s="3">
+      <c r="E88" s="2">
         <v>21.36</v>
       </c>
-      <c r="G88" s="3">
+      <c r="G88" s="2">
         <v>14.27</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="2">
+      <c r="A89" s="1">
         <v>43655</v>
       </c>
-      <c r="B89" s="3">
+      <c r="B89" s="2">
         <v>2928.2294999999999</v>
       </c>
-      <c r="C89" s="3">
+      <c r="C89" s="2">
         <v>13.59</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D89" s="2">
         <v>976.06</v>
       </c>
-      <c r="E89" s="3">
+      <c r="E89" s="2">
         <v>21.43</v>
       </c>
-      <c r="G89" s="3">
+      <c r="G89" s="2">
         <v>14.36</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="2">
+      <c r="A90" s="1">
         <v>43656</v>
       </c>
-      <c r="B90" s="3">
+      <c r="B90" s="2">
         <v>2915.3022000000001</v>
       </c>
-      <c r="C90" s="3">
+      <c r="C90" s="2">
         <v>13.56</v>
       </c>
-      <c r="D90" s="3">
+      <c r="D90" s="2">
         <v>982.52</v>
       </c>
-      <c r="E90" s="3">
+      <c r="E90" s="2">
         <v>21.27</v>
       </c>
-      <c r="G90" s="3">
+      <c r="G90" s="2">
         <v>14.3</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="2">
+      <c r="A91" s="1">
         <v>43657</v>
       </c>
-      <c r="B91" s="3">
+      <c r="B91" s="2">
         <v>2917.7609000000002</v>
       </c>
-      <c r="C91" s="3">
+      <c r="C91" s="2">
         <v>13.54</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="2">
         <v>981.5</v>
       </c>
-      <c r="E91" s="3">
+      <c r="E91" s="2">
         <v>20.29</v>
       </c>
-      <c r="G91" s="3">
+      <c r="G91" s="2">
         <v>14.36</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="2">
+      <c r="A92" s="1">
         <v>43658</v>
       </c>
-      <c r="B92" s="3">
+      <c r="B92" s="2">
         <v>2930.5462000000002</v>
       </c>
-      <c r="C92" s="3">
+      <c r="C92" s="2">
         <v>14.12</v>
       </c>
-      <c r="D92" s="3">
+      <c r="D92" s="2">
         <v>986.09</v>
       </c>
-      <c r="E92" s="3">
+      <c r="E92" s="2">
         <v>19.73</v>
       </c>
-      <c r="G92" s="3">
+      <c r="G92" s="2">
         <v>14.7</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="2">
+      <c r="A93" s="1">
         <v>43661</v>
       </c>
-      <c r="B93" s="3">
+      <c r="B93" s="2">
         <v>2942.1853000000001</v>
       </c>
-      <c r="C93" s="3">
+      <c r="C93" s="2">
         <v>14</v>
       </c>
-      <c r="D93" s="3">
+      <c r="D93" s="2">
         <v>975.93</v>
       </c>
-      <c r="E93" s="3">
+      <c r="E93" s="2">
         <v>20.12</v>
       </c>
-      <c r="G93" s="3">
+      <c r="G93" s="2">
         <v>14.69</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="2">
+      <c r="A94" s="1">
         <v>43662</v>
       </c>
-      <c r="B94" s="3">
+      <c r="B94" s="2">
         <v>2937.6167999999998</v>
       </c>
-      <c r="C94" s="3">
+      <c r="C94" s="2">
         <v>13.75</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94" s="2">
         <v>968</v>
       </c>
-      <c r="E94" s="3">
+      <c r="E94" s="2">
         <v>20.059999999999999</v>
       </c>
-      <c r="G94" s="3">
+      <c r="G94" s="2">
         <v>14.58</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="2">
+      <c r="A95" s="1">
         <v>43663</v>
       </c>
-      <c r="B95" s="3">
+      <c r="B95" s="2">
         <v>2931.6925999999999</v>
       </c>
-      <c r="C95" s="3">
+      <c r="C95" s="2">
         <v>13.69</v>
       </c>
-      <c r="D95" s="3">
+      <c r="D95" s="2">
         <v>963.5</v>
       </c>
-      <c r="E95" s="3">
+      <c r="E95" s="2">
         <v>20.04</v>
       </c>
-      <c r="G95" s="3">
+      <c r="G95" s="2">
         <v>14.6</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="2">
+      <c r="A96" s="1">
         <v>43664</v>
       </c>
-      <c r="B96" s="3">
+      <c r="B96" s="2">
         <v>2901.1765999999998</v>
       </c>
-      <c r="C96" s="3">
+      <c r="C96" s="2">
         <v>13.67</v>
       </c>
-      <c r="D96" s="3">
+      <c r="D96" s="2">
         <v>947.5</v>
       </c>
-      <c r="E96" s="3">
+      <c r="E96" s="2">
         <v>19.72</v>
       </c>
-      <c r="G96" s="3">
+      <c r="G96" s="2">
         <v>14.41</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="2">
+      <c r="A97" s="1">
         <v>43665</v>
       </c>
-      <c r="B97" s="3">
+      <c r="B97" s="2">
         <v>2924.2006000000001</v>
       </c>
-      <c r="C97" s="3">
+      <c r="C97" s="2">
         <v>13.99</v>
       </c>
-      <c r="D97" s="3">
+      <c r="D97" s="2">
         <v>955.87</v>
       </c>
-      <c r="E97" s="3">
+      <c r="E97" s="2">
         <v>20.11</v>
       </c>
-      <c r="G97" s="3">
+      <c r="G97" s="2">
         <v>14.5</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="2">
+      <c r="A98" s="1">
         <v>43668</v>
       </c>
-      <c r="B98" s="3">
+      <c r="B98" s="2">
         <v>2886.9740000000002</v>
       </c>
-      <c r="C98" s="3">
+      <c r="C98" s="2">
         <v>13.85</v>
       </c>
-      <c r="D98" s="3">
+      <c r="D98" s="2">
         <v>957.02</v>
       </c>
-      <c r="E98" s="3">
+      <c r="E98" s="2">
         <v>19.59</v>
       </c>
-      <c r="F98" s="3">
+      <c r="F98" s="2">
         <v>55.5</v>
       </c>
-      <c r="G98" s="3">
+      <c r="G98" s="2">
         <v>13.88</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="2">
+      <c r="A99" s="1">
         <v>43669</v>
       </c>
-      <c r="B99" s="3">
+      <c r="B99" s="2">
         <v>2899.9445999999998</v>
       </c>
-      <c r="C99" s="3">
+      <c r="C99" s="2">
         <v>13.76</v>
       </c>
-      <c r="D99" s="3">
+      <c r="D99" s="2">
         <v>953.98</v>
       </c>
-      <c r="E99" s="3">
+      <c r="E99" s="2">
         <v>19.55</v>
       </c>
-      <c r="F99" s="3">
+      <c r="F99" s="2">
         <v>48.73</v>
       </c>
-      <c r="G99" s="3">
+      <c r="G99" s="2">
         <v>14.21</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="2">
+      <c r="A100" s="1">
         <v>43670</v>
       </c>
-      <c r="B100" s="3">
+      <c r="B100" s="2">
         <v>2923.2775000000001</v>
       </c>
-      <c r="C100" s="3">
+      <c r="C100" s="2">
         <v>13.88</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100" s="2">
         <v>946.36</v>
       </c>
-      <c r="E100" s="3">
+      <c r="E100" s="2">
         <v>19.63</v>
       </c>
-      <c r="F100" s="3">
+      <c r="F100" s="2">
         <v>51.52</v>
       </c>
-      <c r="G100" s="3">
+      <c r="G100" s="2">
         <v>14.42</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="2">
+      <c r="A101" s="1">
         <v>43671</v>
       </c>
-      <c r="B101" s="3">
+      <c r="B101" s="2">
         <v>2937.3600999999999</v>
       </c>
-      <c r="C101" s="3">
+      <c r="C101" s="2">
         <v>14.2</v>
       </c>
-      <c r="D101" s="3">
+      <c r="D101" s="2">
         <v>963</v>
       </c>
-      <c r="E101" s="3">
+      <c r="E101" s="2">
         <v>19.559999999999999</v>
       </c>
-      <c r="F101" s="3">
+      <c r="F101" s="2">
         <v>54.71</v>
       </c>
-      <c r="G101" s="3">
+      <c r="G101" s="2">
         <v>14.63</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="2">
+      <c r="A102" s="1">
         <v>43672</v>
       </c>
-      <c r="B102" s="3">
+      <c r="B102" s="2">
         <v>2944.5410000000002</v>
       </c>
-      <c r="C102" s="3">
+      <c r="C102" s="2">
         <v>14.23</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="2">
         <v>965.03</v>
       </c>
-      <c r="E102" s="3">
+      <c r="E102" s="2">
         <v>19.43</v>
       </c>
-      <c r="F102" s="3">
+      <c r="F102" s="2">
         <v>50.66</v>
       </c>
-      <c r="G102" s="3">
+      <c r="G102" s="2">
         <v>15.25</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="2">
+      <c r="A103" s="1">
         <v>43675</v>
       </c>
-      <c r="B103" s="3">
+      <c r="B103" s="2">
         <v>2941.0070000000001</v>
       </c>
-      <c r="C103" s="3">
+      <c r="C103" s="2">
         <v>14.29</v>
       </c>
-      <c r="D103" s="3">
+      <c r="D103" s="2">
         <v>976.41</v>
       </c>
-      <c r="E103" s="3">
+      <c r="E103" s="2">
         <v>19.5</v>
       </c>
-      <c r="F103" s="3">
+      <c r="F103" s="2">
         <v>55.48</v>
       </c>
-      <c r="G103" s="3">
+      <c r="G103" s="2">
         <v>14.75</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="2">
+      <c r="A104" s="1">
         <v>43676</v>
       </c>
-      <c r="B104" s="3">
+      <c r="B104" s="2">
         <v>2952.3382999999999</v>
       </c>
-      <c r="C104" s="3">
+      <c r="C104" s="2">
         <v>14.37</v>
       </c>
-      <c r="D104" s="3">
+      <c r="D104" s="2">
         <v>978.93</v>
       </c>
-      <c r="E104" s="3">
+      <c r="E104" s="2">
         <v>19.690000000000001</v>
       </c>
-      <c r="F104" s="3">
+      <c r="F104" s="2">
         <v>56.79</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="2">
+      <c r="A105" s="1">
         <v>43677</v>
       </c>
-      <c r="B105" s="3">
+      <c r="B105" s="2">
         <v>2932.5057999999999</v>
       </c>
-      <c r="C105" s="3">
+      <c r="C105" s="2">
         <v>14.13</v>
       </c>
-      <c r="D105" s="3">
+      <c r="D105" s="2">
         <v>972.6</v>
       </c>
-      <c r="E105" s="3">
+      <c r="E105" s="2">
         <v>19.38</v>
       </c>
-      <c r="F105" s="3">
+      <c r="F105" s="2">
         <v>58.59</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="2">
+      <c r="A106" s="1">
         <v>43678</v>
       </c>
-      <c r="B106" s="3">
+      <c r="B106" s="2">
         <v>2908.7660000000001</v>
       </c>
-      <c r="C106" s="3">
+      <c r="C106" s="2">
         <v>14.1</v>
       </c>
-      <c r="D106" s="3">
+      <c r="D106" s="2">
         <v>959.3</v>
       </c>
-      <c r="E106" s="3">
+      <c r="E106" s="2">
         <v>18.62</v>
       </c>
-      <c r="F106" s="3">
+      <c r="F106" s="2">
         <v>68.489999999999995</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="2">
+      <c r="A107" s="1">
         <v>43679</v>
       </c>
-      <c r="B107" s="3">
+      <c r="B107" s="2">
         <v>2867.8375999999998</v>
       </c>
-      <c r="C107" s="3">
+      <c r="C107" s="2">
         <v>13.74</v>
       </c>
-      <c r="D107" s="3">
+      <c r="D107" s="2">
         <v>954.45</v>
       </c>
-      <c r="E107" s="3">
+      <c r="E107" s="2">
         <v>17.89</v>
       </c>
-      <c r="F107" s="3">
+      <c r="F107" s="2">
         <v>69.92</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="2">
+      <c r="A108" s="1">
         <v>43682</v>
       </c>
-      <c r="B108" s="3">
+      <c r="B108" s="2">
         <v>2821.4956999999999</v>
       </c>
-      <c r="C108" s="3">
+      <c r="C108" s="2">
         <v>13.35</v>
       </c>
-      <c r="D108" s="3">
+      <c r="D108" s="2">
         <v>942.43</v>
       </c>
-      <c r="E108" s="3">
+      <c r="E108" s="2">
         <v>17.37</v>
       </c>
-      <c r="F108" s="3">
+      <c r="F108" s="2">
         <v>72.25</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="2">
+      <c r="A109" s="1">
         <v>43683</v>
       </c>
-      <c r="B109" s="3">
+      <c r="B109" s="2">
         <v>2777.5558999999998</v>
       </c>
-      <c r="C109" s="3">
+      <c r="C109" s="2">
         <v>13.37</v>
       </c>
-      <c r="D109" s="3">
+      <c r="D109" s="2">
         <v>946.3</v>
       </c>
-      <c r="E109" s="3">
+      <c r="E109" s="2">
         <v>17.940000000000001</v>
       </c>
-      <c r="F109" s="3">
+      <c r="F109" s="2">
         <v>67.22</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="2">
+      <c r="A110" s="1">
         <v>43684</v>
       </c>
-      <c r="B110" s="3">
+      <c r="B110" s="2">
         <v>2768.6795000000002</v>
       </c>
-      <c r="C110" s="3">
+      <c r="C110" s="2">
         <v>13.54</v>
       </c>
-      <c r="D110" s="3">
+      <c r="D110" s="2">
         <v>945</v>
       </c>
-      <c r="E110" s="3">
+      <c r="E110" s="2">
         <v>17.329999999999998</v>
       </c>
-      <c r="F110" s="3">
+      <c r="F110" s="2">
         <v>76.599999999999994</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="2">
+      <c r="A111" s="1">
         <v>43685</v>
       </c>
-      <c r="B111" s="3">
+      <c r="B111" s="2">
         <v>2794.5522999999998</v>
       </c>
-      <c r="C111" s="3">
+      <c r="C111" s="2">
         <v>14.38</v>
       </c>
-      <c r="D111" s="3">
+      <c r="D111" s="2">
         <v>971.68</v>
       </c>
-      <c r="E111" s="3">
+      <c r="E111" s="2">
         <v>17.54</v>
       </c>
-      <c r="F111" s="3">
+      <c r="F111" s="2">
         <v>69.03</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="2">
+      <c r="A112" s="1">
         <v>43686</v>
       </c>
-      <c r="B112" s="3">
+      <c r="B112" s="2">
         <v>2774.7532000000001</v>
       </c>
-      <c r="C112" s="3">
+      <c r="C112" s="2">
         <v>14.52</v>
       </c>
-      <c r="D112" s="3">
+      <c r="D112" s="2">
         <v>962.03</v>
       </c>
-      <c r="E112" s="3">
+      <c r="E112" s="2">
         <v>16.920000000000002</v>
       </c>
-      <c r="F112" s="3">
+      <c r="F112" s="2">
         <v>64.849999999999994</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="2">
+      <c r="A113" s="1">
         <v>43689</v>
       </c>
-      <c r="B113" s="3">
+      <c r="B113" s="2">
         <v>2814.9944</v>
       </c>
-      <c r="C113" s="3">
+      <c r="C113" s="2">
         <v>15.12</v>
       </c>
-      <c r="D113" s="3">
+      <c r="D113" s="2">
         <v>1018.63</v>
       </c>
-      <c r="E113" s="3">
+      <c r="E113" s="2">
         <v>17.45</v>
       </c>
-      <c r="F113" s="3">
+      <c r="F113" s="2">
         <v>60.95</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="2">
+      <c r="A114" s="1">
         <v>43690</v>
       </c>
-      <c r="B114" s="3">
+      <c r="B114" s="2">
         <v>2797.2595999999999</v>
       </c>
-      <c r="C114" s="3">
+      <c r="C114" s="2">
         <v>14.89</v>
       </c>
-      <c r="D114" s="3">
+      <c r="D114" s="2">
         <v>1017.95</v>
       </c>
-      <c r="E114" s="3">
+      <c r="E114" s="2">
         <v>16.95</v>
       </c>
-      <c r="F114" s="3">
+      <c r="F114" s="2">
         <v>64.55</v>
       </c>
-      <c r="G114" s="3">
+      <c r="G114" s="2">
         <v>16.23</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="2">
+      <c r="A115" s="1">
         <v>43691</v>
       </c>
-      <c r="B115" s="3">
+      <c r="B115" s="2">
         <v>2808.9146000000001</v>
       </c>
-      <c r="C115" s="3">
+      <c r="C115" s="2">
         <v>14.97</v>
       </c>
-      <c r="D115" s="3">
+      <c r="D115" s="2">
         <v>1043.33</v>
       </c>
-      <c r="E115" s="3">
+      <c r="E115" s="2">
         <v>16.95</v>
       </c>
-      <c r="F115" s="3">
+      <c r="F115" s="2">
         <v>64.900000000000006</v>
       </c>
-      <c r="G115" s="3">
+      <c r="G115" s="2">
         <v>17.850000000000001</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="2">
+      <c r="A116" s="1">
         <v>43692</v>
       </c>
-      <c r="B116" s="3">
+      <c r="B116" s="2">
         <v>2815.7975999999999</v>
       </c>
-      <c r="C116" s="3">
+      <c r="C116" s="2">
         <v>14.94</v>
       </c>
-      <c r="D116" s="3">
+      <c r="D116" s="2">
         <v>1044.9000000000001</v>
       </c>
-      <c r="E116" s="3">
+      <c r="E116" s="2">
         <v>16.82</v>
       </c>
-      <c r="F116" s="3">
+      <c r="F116" s="2">
         <v>66.05</v>
       </c>
-      <c r="G116" s="3">
+      <c r="G116" s="2">
         <v>19.64</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="2">
+      <c r="A117" s="1">
         <v>43693</v>
       </c>
-      <c r="B117" s="3">
+      <c r="B117" s="2">
         <v>2823.8238000000001</v>
       </c>
-      <c r="C117" s="3">
+      <c r="C117" s="2">
         <v>14.9</v>
       </c>
-      <c r="D117" s="3">
+      <c r="D117" s="2">
         <v>1054.5999999999999</v>
       </c>
-      <c r="E117" s="3">
+      <c r="E117" s="2">
         <v>16.920000000000002</v>
       </c>
-      <c r="F117" s="3">
+      <c r="F117" s="2">
         <v>65.900000000000006</v>
       </c>
-      <c r="G117" s="3">
+      <c r="G117" s="2">
         <v>18.989999999999998</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="2">
+      <c r="A118" s="1">
         <v>43696</v>
       </c>
-      <c r="B118" s="3">
+      <c r="B118" s="2">
         <v>2883.096</v>
       </c>
-      <c r="C118" s="3">
+      <c r="C118" s="2">
         <v>14.92</v>
       </c>
-      <c r="D118" s="3">
+      <c r="D118" s="2">
         <v>1055.8800000000001</v>
       </c>
-      <c r="E118" s="3">
+      <c r="E118" s="2">
         <v>18.61</v>
       </c>
-      <c r="F118" s="3">
+      <c r="F118" s="2">
         <v>64.5</v>
       </c>
-      <c r="G118" s="3">
+      <c r="G118" s="2">
         <v>20.89</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="2">
+      <c r="A119" s="1">
         <v>43697</v>
       </c>
-      <c r="B119" s="3">
+      <c r="B119" s="2">
         <v>2880.0012000000002</v>
       </c>
-      <c r="C119" s="3">
+      <c r="C119" s="2">
         <v>14.99</v>
       </c>
-      <c r="D119" s="3">
+      <c r="D119" s="2">
         <v>1070</v>
       </c>
-      <c r="E119" s="3">
+      <c r="E119" s="2">
         <v>18.8</v>
       </c>
-      <c r="F119" s="3">
+      <c r="F119" s="2">
         <v>63.39</v>
       </c>
-      <c r="G119" s="3">
+      <c r="G119" s="2">
         <v>22.98</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="2">
+      <c r="A120" s="1">
         <v>43698</v>
       </c>
-      <c r="B120" s="3">
+      <c r="B120" s="2">
         <v>2880.3307</v>
       </c>
-      <c r="C120" s="3">
+      <c r="C120" s="2">
         <v>14.45</v>
       </c>
-      <c r="D120" s="3">
+      <c r="D120" s="2">
         <v>1066</v>
       </c>
-      <c r="E120" s="3">
+      <c r="E120" s="2">
         <v>19.100000000000001</v>
       </c>
-      <c r="F120" s="3">
+      <c r="F120" s="2">
         <v>57.81</v>
       </c>
-      <c r="G120" s="3">
+      <c r="G120" s="2">
         <v>20.77</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="2">
+      <c r="A121" s="1">
         <v>43699</v>
       </c>
-      <c r="B121" s="3">
+      <c r="B121" s="2">
         <v>2883.4358000000002</v>
       </c>
-      <c r="C121" s="3">
+      <c r="C121" s="2">
         <v>14.31</v>
       </c>
-      <c r="D121" s="3">
+      <c r="D121" s="2">
         <v>1104</v>
       </c>
-      <c r="E121" s="3">
+      <c r="E121" s="2">
         <v>18.850000000000001</v>
       </c>
-      <c r="F121" s="3">
+      <c r="F121" s="2">
         <v>58.5</v>
       </c>
-      <c r="G121" s="3">
+      <c r="G121" s="2">
         <v>21.29</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="2">
+      <c r="A122" s="1">
         <v>43700</v>
       </c>
-      <c r="B122" s="3">
+      <c r="B122" s="2">
         <v>2897.4252999999999</v>
       </c>
-      <c r="C122" s="3">
+      <c r="C122" s="2">
         <v>14.65</v>
       </c>
-      <c r="D122" s="3">
+      <c r="D122" s="2">
         <v>1130.0999999999999</v>
       </c>
-      <c r="E122" s="3">
+      <c r="E122" s="2">
         <v>18.64</v>
       </c>
-      <c r="F122" s="3">
+      <c r="F122" s="2">
         <v>54.03</v>
       </c>
-      <c r="G122" s="3">
+      <c r="G122" s="2">
         <v>20.190000000000001</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="2">
+      <c r="A123" s="1">
         <v>43703</v>
       </c>
-      <c r="B123" s="3">
+      <c r="B123" s="2">
         <v>2863.5673000000002</v>
       </c>
-      <c r="C123" s="3">
+      <c r="C123" s="2">
         <v>14.25</v>
       </c>
-      <c r="D123" s="3">
+      <c r="D123" s="2">
         <v>1102.95</v>
       </c>
-      <c r="E123" s="3">
+      <c r="E123" s="2">
         <v>18.52</v>
       </c>
-      <c r="F123" s="3">
+      <c r="F123" s="2">
         <v>55.06</v>
       </c>
-      <c r="G123" s="3">
+      <c r="G123" s="2">
         <v>19.5</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="2">
+      <c r="A124" s="1">
         <v>43704</v>
       </c>
-      <c r="B124" s="3">
+      <c r="B124" s="2">
         <v>2902.1932000000002</v>
       </c>
-      <c r="C124" s="3">
+      <c r="C124" s="2">
         <v>14.31</v>
       </c>
-      <c r="D124" s="3">
+      <c r="D124" s="2">
         <v>1109</v>
       </c>
-      <c r="E124" s="3">
+      <c r="E124" s="2">
         <v>20.190000000000001</v>
       </c>
-      <c r="F124" s="3">
+      <c r="F124" s="2">
         <v>55.11</v>
       </c>
-      <c r="G124" s="3">
+      <c r="G124" s="2">
         <v>19.89</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="2">
+      <c r="A125" s="1">
         <v>43705</v>
       </c>
-      <c r="B125" s="3">
+      <c r="B125" s="2">
         <v>2893.7564000000002</v>
       </c>
-      <c r="C125" s="3">
+      <c r="C125" s="2">
         <v>14.27</v>
       </c>
-      <c r="D125" s="3">
+      <c r="D125" s="2">
         <v>1100.1099999999999</v>
       </c>
-      <c r="E125" s="3">
+      <c r="E125" s="2">
         <v>19.39</v>
       </c>
-      <c r="F125" s="3">
+      <c r="F125" s="2">
         <v>53.3</v>
       </c>
-      <c r="G125" s="3">
+      <c r="G125" s="2">
         <v>20.74</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="2">
+      <c r="A126" s="1">
         <v>43706</v>
       </c>
-      <c r="B126" s="3">
+      <c r="B126" s="2">
         <v>2890.9191999999998</v>
       </c>
-      <c r="C126" s="3">
+      <c r="C126" s="2">
         <v>14.13</v>
       </c>
-      <c r="D126" s="3">
+      <c r="D126" s="2">
         <v>1113.0999999999999</v>
       </c>
-      <c r="E126" s="3">
+      <c r="E126" s="2">
         <v>19.100000000000001</v>
       </c>
-      <c r="F126" s="3">
+      <c r="F126" s="2">
         <v>52.24</v>
       </c>
-      <c r="G126" s="3">
+      <c r="G126" s="2">
         <v>19.68</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="2">
+      <c r="A127" s="1">
         <v>43707</v>
       </c>
-      <c r="B127" s="3">
+      <c r="B127" s="2">
         <v>2886.2365</v>
       </c>
-      <c r="C127" s="3">
+      <c r="C127" s="2">
         <v>14.16</v>
       </c>
-      <c r="D127" s="3">
+      <c r="D127" s="2">
         <v>1142</v>
       </c>
-      <c r="E127" s="3">
+      <c r="E127" s="2">
         <v>19.22</v>
       </c>
-      <c r="F127" s="3">
+      <c r="F127" s="2">
         <v>51.85</v>
       </c>
-      <c r="G127" s="3">
+      <c r="G127" s="2">
         <v>19.059999999999999</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="2">
+      <c r="A128" s="1">
         <v>43710</v>
       </c>
-      <c r="B128" s="3">
+      <c r="B128" s="2">
         <v>2924.1062999999999</v>
       </c>
-      <c r="C128" s="3">
+      <c r="C128" s="2">
         <v>14.45</v>
       </c>
-      <c r="D128" s="3">
+      <c r="D128" s="2">
         <v>1138.76</v>
       </c>
-      <c r="E128" s="3">
+      <c r="E128" s="2">
         <v>19.920000000000002</v>
       </c>
-      <c r="F128" s="3">
+      <c r="F128" s="2">
         <v>52.23</v>
       </c>
-      <c r="G128" s="3">
+      <c r="G128" s="2">
         <v>19.489999999999998</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="2">
+      <c r="A129" s="1">
         <v>43711</v>
       </c>
-      <c r="B129" s="3">
+      <c r="B129" s="2">
         <v>2930.1538</v>
       </c>
-      <c r="C129" s="3">
+      <c r="C129" s="2">
         <v>14.3</v>
       </c>
-      <c r="D129" s="3">
+      <c r="D129" s="2">
         <v>1140</v>
       </c>
-      <c r="E129" s="3">
+      <c r="E129" s="2">
         <v>20.04</v>
       </c>
-      <c r="F129" s="3">
+      <c r="F129" s="2">
         <v>55.77</v>
       </c>
-      <c r="G129" s="3">
+      <c r="G129" s="2">
         <v>19.79</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="2">
+      <c r="A130" s="1">
         <v>43712</v>
       </c>
-      <c r="B130" s="3">
+      <c r="B130" s="2">
         <v>2957.4115999999999</v>
       </c>
-      <c r="C130" s="3">
+      <c r="C130" s="2">
         <v>14.44</v>
       </c>
-      <c r="D130" s="3">
+      <c r="D130" s="2">
         <v>1125.01</v>
       </c>
-      <c r="E130" s="3">
+      <c r="E130" s="2">
         <v>20.85</v>
       </c>
-      <c r="F130" s="3">
+      <c r="F130" s="2">
         <v>56.02</v>
       </c>
-      <c r="G130" s="3">
+      <c r="G130" s="2">
         <v>19.850000000000001</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="2">
+      <c r="A131" s="1">
         <v>43713</v>
       </c>
-      <c r="B131" s="3">
+      <c r="B131" s="2">
         <v>2985.8647999999998</v>
       </c>
-      <c r="C131" s="3">
+      <c r="C131" s="2">
         <v>14.58</v>
       </c>
-      <c r="D131" s="3">
+      <c r="D131" s="2">
         <v>1144</v>
       </c>
-      <c r="E131" s="3">
+      <c r="E131" s="2">
         <v>22.47</v>
       </c>
-      <c r="F131" s="3">
+      <c r="F131" s="2">
         <v>56.26</v>
       </c>
-      <c r="G131" s="3">
+      <c r="G131" s="2">
         <v>19.88</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="2">
+      <c r="A132" s="1">
         <v>43714</v>
       </c>
-      <c r="B132" s="3">
+      <c r="B132" s="2">
         <v>2999.6012999999998</v>
       </c>
-      <c r="C132" s="3">
+      <c r="C132" s="2">
         <v>14.81</v>
       </c>
-      <c r="D132" s="3">
+      <c r="D132" s="2">
         <v>1142.49</v>
       </c>
-      <c r="E132" s="3">
+      <c r="E132" s="2">
         <v>23.75</v>
       </c>
-      <c r="F132" s="3">
+      <c r="F132" s="2">
         <v>53.53</v>
       </c>
-      <c r="G132" s="3">
+      <c r="G132" s="2">
         <v>19.43</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="2">
+      <c r="A133" s="1">
         <v>43717</v>
       </c>
-      <c r="B133" s="3">
+      <c r="B133" s="2">
         <v>3024.7388000000001</v>
       </c>
-      <c r="C133" s="3">
+      <c r="C133" s="2">
         <v>14.69</v>
       </c>
-      <c r="D133" s="3">
+      <c r="D133" s="2">
         <v>1136.52</v>
       </c>
-      <c r="E133" s="3">
+      <c r="E133" s="2">
         <v>24.63</v>
       </c>
-      <c r="F133" s="3">
+      <c r="F133" s="2">
         <v>54.22</v>
       </c>
-      <c r="G133" s="3">
+      <c r="G133" s="2">
         <v>19.36</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" s="2">
+      <c r="A134" s="1">
         <v>43718</v>
       </c>
-      <c r="B134" s="3">
+      <c r="B134" s="2">
         <v>3021.2024000000001</v>
       </c>
-      <c r="C134" s="3">
+      <c r="C134" s="2">
         <v>14.55</v>
       </c>
-      <c r="D134" s="3">
+      <c r="D134" s="2">
         <v>1123.8499999999999</v>
       </c>
-      <c r="E134" s="3">
+      <c r="E134" s="2">
         <v>26.02</v>
       </c>
-      <c r="F134" s="3">
+      <c r="F134" s="2">
         <v>54.98</v>
       </c>
-      <c r="G134" s="3">
+      <c r="G134" s="2">
         <v>19.96</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" s="2">
+      <c r="A135" s="1">
         <v>43719</v>
       </c>
-      <c r="B135" s="3">
+      <c r="B135" s="2">
         <v>3008.8117999999999</v>
       </c>
-      <c r="C135" s="3">
+      <c r="C135" s="2">
         <v>14.56</v>
       </c>
-      <c r="D135" s="3">
+      <c r="D135" s="2">
         <v>1069.52</v>
       </c>
-      <c r="E135" s="3">
+      <c r="E135" s="2">
         <v>25.5</v>
       </c>
-      <c r="F135" s="3">
+      <c r="F135" s="2">
         <v>55.35</v>
       </c>
-      <c r="G135" s="3">
+      <c r="G135" s="2">
         <v>20.73</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" s="2">
+      <c r="A136" s="1">
         <v>43720</v>
       </c>
-      <c r="B136" s="3">
+      <c r="B136" s="2">
         <v>3031.2350999999999</v>
       </c>
-      <c r="C136" s="3">
+      <c r="C136" s="2">
         <v>14.68</v>
       </c>
-      <c r="D136" s="3">
+      <c r="D136" s="2">
         <v>1099</v>
       </c>
-      <c r="E136" s="3">
+      <c r="E136" s="2">
         <v>25.96</v>
       </c>
-      <c r="F136" s="3">
+      <c r="F136" s="2">
         <v>53.38</v>
       </c>
-      <c r="G136" s="3">
+      <c r="G136" s="2">
         <v>20.010000000000002</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" s="2">
+      <c r="A137" s="1">
         <v>43724</v>
       </c>
-      <c r="B137" s="3">
+      <c r="B137" s="2">
         <v>3030.7543999999998</v>
       </c>
-      <c r="C137" s="3">
+      <c r="C137" s="2">
         <v>14.45</v>
       </c>
-      <c r="D137" s="3">
+      <c r="D137" s="2">
         <v>1099</v>
       </c>
-      <c r="E137" s="3">
+      <c r="E137" s="2">
         <v>25</v>
       </c>
-      <c r="F137" s="3">
+      <c r="F137" s="2">
         <v>53.84</v>
       </c>
-      <c r="G137" s="3">
+      <c r="G137" s="2">
         <v>20.46</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" s="2">
+      <c r="A138" s="1">
         <v>43725</v>
       </c>
-      <c r="B138" s="3">
+      <c r="B138" s="2">
         <v>2978.1178</v>
       </c>
-      <c r="C138" s="3">
+      <c r="C138" s="2">
         <v>14.24</v>
       </c>
-      <c r="D138" s="3">
+      <c r="D138" s="2">
         <v>1094.01</v>
       </c>
-      <c r="E138" s="3">
+      <c r="E138" s="2">
         <v>24.81</v>
       </c>
-      <c r="F138" s="3">
+      <c r="F138" s="2">
         <v>52.15</v>
       </c>
-      <c r="G138" s="3">
+      <c r="G138" s="2">
         <v>20.69</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" s="2">
+      <c r="A139" s="1">
         <v>43726</v>
       </c>
-      <c r="B139" s="3">
+      <c r="B139" s="2">
         <v>2985.6586000000002</v>
       </c>
-      <c r="C139" s="3">
+      <c r="C139" s="2">
         <v>14.41</v>
       </c>
-      <c r="D139" s="3">
+      <c r="D139" s="2">
         <v>1148.9000000000001</v>
       </c>
-      <c r="E139" s="3">
+      <c r="E139" s="2">
         <v>24.15</v>
       </c>
-      <c r="F139" s="3">
+      <c r="F139" s="2">
         <v>51.37</v>
       </c>
-      <c r="G139" s="3">
+      <c r="G139" s="2">
         <v>20.32</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" s="2">
+      <c r="A140" s="1">
         <v>43727</v>
       </c>
-      <c r="B140" s="3">
+      <c r="B140" s="2">
         <v>2999.2788999999998</v>
       </c>
-      <c r="C140" s="3">
+      <c r="C140" s="2">
         <v>14.84</v>
       </c>
-      <c r="D140" s="3">
+      <c r="D140" s="2">
         <v>1145</v>
       </c>
-      <c r="E140" s="3">
+      <c r="E140" s="2">
         <v>24.6</v>
       </c>
-      <c r="F140" s="3">
+      <c r="F140" s="2">
         <v>52.39</v>
       </c>
-      <c r="G140" s="3">
+      <c r="G140" s="2">
         <v>19.68</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" s="2">
+      <c r="A141" s="1">
         <v>43728</v>
       </c>
-      <c r="B141" s="3">
+      <c r="B141" s="2">
         <v>3006.4467</v>
       </c>
-      <c r="C141" s="3">
+      <c r="C141" s="2">
         <v>15.34</v>
       </c>
-      <c r="D141" s="3">
+      <c r="D141" s="2">
         <v>1157.42</v>
       </c>
-      <c r="E141" s="3">
+      <c r="E141" s="2">
         <v>24.95</v>
       </c>
-      <c r="F141" s="3">
+      <c r="F141" s="2">
         <v>52.1</v>
       </c>
-      <c r="G141" s="3">
+      <c r="G141" s="2">
         <v>18.95</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" s="2">
+      <c r="A142" s="1">
         <v>43731</v>
       </c>
-      <c r="B142" s="3">
+      <c r="B142" s="2">
         <v>2977.0767000000001</v>
       </c>
-      <c r="C142" s="3">
+      <c r="C142" s="2">
         <v>15.38</v>
       </c>
-      <c r="D142" s="3">
+      <c r="D142" s="2">
         <v>1149</v>
       </c>
-      <c r="E142" s="3">
+      <c r="E142" s="2">
         <v>24.47</v>
       </c>
-      <c r="F142" s="3">
+      <c r="F142" s="2">
         <v>51.93</v>
       </c>
-      <c r="G142" s="3">
+      <c r="G142" s="2">
         <v>19.010000000000002</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" s="2">
+      <c r="A143" s="1">
         <v>43732</v>
       </c>
-      <c r="B143" s="3">
+      <c r="B143" s="2">
         <v>2985.3406</v>
       </c>
-      <c r="C143" s="3">
+      <c r="C143" s="2">
         <v>15.18</v>
       </c>
-      <c r="D143" s="3">
+      <c r="D143" s="2">
         <v>1184</v>
       </c>
-      <c r="E143" s="3">
+      <c r="E143" s="2">
         <v>24.16</v>
       </c>
-      <c r="F143" s="3">
+      <c r="F143" s="2">
         <v>56.2</v>
       </c>
-      <c r="G143" s="3">
+      <c r="G143" s="2">
         <v>18.829999999999998</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144" s="2">
+      <c r="A144" s="1">
         <v>43733</v>
       </c>
-      <c r="B144" s="3">
+      <c r="B144" s="2">
         <v>2955.4324999999999</v>
       </c>
-      <c r="C144" s="3">
+      <c r="C144" s="2">
         <v>15.75</v>
       </c>
-      <c r="D144" s="3">
+      <c r="D144" s="2">
         <v>1174</v>
       </c>
-      <c r="E144" s="3">
+      <c r="E144" s="2">
         <v>23.68</v>
       </c>
-      <c r="F144" s="3">
+      <c r="F144" s="2">
         <v>53.95</v>
       </c>
-      <c r="G144" s="3">
+      <c r="G144" s="2">
         <v>18.95</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145" s="2">
+      <c r="A145" s="1">
         <v>43734</v>
       </c>
-      <c r="B145" s="3">
+      <c r="B145" s="2">
         <v>2929.0875000000001</v>
       </c>
-      <c r="C145" s="3">
+      <c r="C145" s="2">
         <v>15.71</v>
       </c>
-      <c r="D145" s="3">
+      <c r="D145" s="2">
         <v>1167</v>
       </c>
-      <c r="E145" s="3">
+      <c r="E145" s="2">
         <v>22.96</v>
       </c>
-      <c r="F145" s="3">
+      <c r="F145" s="2">
         <v>49.46</v>
       </c>
-      <c r="G145" s="3">
+      <c r="G145" s="2">
         <v>17.059999999999999</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146" s="2">
+      <c r="A146" s="1">
         <v>43735</v>
       </c>
-      <c r="B146" s="3">
+      <c r="B146" s="2">
         <v>2932.1669999999999</v>
       </c>
-      <c r="C146" s="3">
+      <c r="C146" s="2">
         <v>15.9</v>
       </c>
-      <c r="D146" s="3">
+      <c r="D146" s="2">
         <v>1174.75</v>
       </c>
-      <c r="E146" s="3">
+      <c r="E146" s="2">
         <v>23</v>
       </c>
-      <c r="F146" s="3">
+      <c r="F146" s="2">
         <v>50.44</v>
       </c>
-      <c r="G146" s="3">
+      <c r="G146" s="2">
         <v>18.27</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" s="2">
+      <c r="A147" s="1">
         <v>43738</v>
       </c>
-      <c r="B147" s="3">
+      <c r="B147" s="2">
         <v>2905.1891999999998</v>
       </c>
-      <c r="C147" s="3">
+      <c r="C147" s="2">
         <v>15.59</v>
       </c>
-      <c r="D147" s="3">
+      <c r="D147" s="2">
         <v>1150</v>
       </c>
-      <c r="E147" s="3">
+      <c r="E147" s="2">
         <v>22.32</v>
       </c>
-      <c r="F147" s="3">
+      <c r="F147" s="2">
         <v>47.09</v>
       </c>
-      <c r="G147" s="3">
+      <c r="G147" s="2">
         <v>17.88</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" s="2">
+      <c r="A148" s="1">
         <v>43746</v>
       </c>
-      <c r="B148" s="3">
+      <c r="B148" s="2">
         <v>2913.5704000000001</v>
       </c>
-      <c r="C148" s="3">
+      <c r="C148" s="2">
         <v>16.2</v>
       </c>
-      <c r="D148" s="3">
+      <c r="D148" s="2">
         <v>1167.0999999999999</v>
       </c>
-      <c r="E148" s="3">
+      <c r="E148" s="2">
         <v>22.94</v>
       </c>
-      <c r="F148" s="3">
+      <c r="F148" s="2">
         <v>45.79</v>
       </c>
-      <c r="G148" s="3">
+      <c r="G148" s="2">
         <v>17.45</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" s="2">
+      <c r="A149" s="1">
         <v>43747</v>
       </c>
-      <c r="B149" s="3">
+      <c r="B149" s="2">
         <v>2924.8566000000001</v>
       </c>
-      <c r="C149" s="3">
+      <c r="C149" s="2">
         <v>16.25</v>
       </c>
-      <c r="D149" s="3">
+      <c r="D149" s="2">
         <v>1146.81</v>
       </c>
-      <c r="E149" s="3">
+      <c r="E149" s="2">
         <v>23.9</v>
       </c>
-      <c r="F149" s="3">
+      <c r="F149" s="2">
         <v>46.38</v>
       </c>
-      <c r="G149" s="3">
+      <c r="G149" s="2">
         <v>18.07</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" s="2">
+      <c r="A150" s="1">
         <v>43748</v>
       </c>
-      <c r="B150" s="3">
+      <c r="B150" s="2">
         <v>2947.7105999999999</v>
       </c>
-      <c r="C150" s="3">
+      <c r="C150" s="2">
         <v>16.239999999999998</v>
       </c>
-      <c r="D150" s="3">
+      <c r="D150" s="2">
         <v>1155</v>
       </c>
-      <c r="E150" s="3">
+      <c r="E150" s="2">
         <v>24.1</v>
       </c>
-      <c r="F150" s="3">
+      <c r="F150" s="2">
         <v>47.12</v>
       </c>
-      <c r="G150" s="3">
+      <c r="G150" s="2">
         <v>17.87</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151" s="2">
+      <c r="A151" s="1">
         <v>43749</v>
       </c>
-      <c r="B151" s="3">
+      <c r="B151" s="2">
         <v>2973.6558</v>
       </c>
-      <c r="C151" s="3">
+      <c r="C151" s="2">
         <v>16.809999999999999</v>
       </c>
-      <c r="D151" s="3">
+      <c r="D151" s="2">
         <v>1174.5999999999999</v>
       </c>
-      <c r="E151" s="3">
+      <c r="E151" s="2">
         <v>25.19</v>
       </c>
-      <c r="F151" s="3">
+      <c r="F151" s="2">
         <v>46.48</v>
       </c>
-      <c r="G151" s="3">
+      <c r="G151" s="2">
         <v>17.59</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" s="2">
+      <c r="A152" s="1">
         <v>43752</v>
       </c>
-      <c r="B152" s="3">
+      <c r="B152" s="2">
         <v>3007.8834000000002</v>
       </c>
-      <c r="C152" s="3">
+      <c r="C152" s="2">
         <v>17.22</v>
       </c>
-      <c r="D152" s="3">
+      <c r="D152" s="2">
         <v>1180</v>
       </c>
-      <c r="E152" s="3">
+      <c r="E152" s="2">
         <v>24.86</v>
       </c>
-      <c r="F152" s="3">
+      <c r="F152" s="2">
         <v>46.97</v>
       </c>
-      <c r="G152" s="3">
+      <c r="G152" s="2">
         <v>17.739999999999998</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153" s="2">
+      <c r="A153" s="1">
         <v>43753</v>
       </c>
-      <c r="B153" s="3">
+      <c r="B153" s="2">
         <v>2991.0459000000001</v>
       </c>
-      <c r="C153" s="3">
+      <c r="C153" s="2">
         <v>17.18</v>
       </c>
-      <c r="D153" s="3">
+      <c r="D153" s="2">
         <v>1211</v>
       </c>
-      <c r="E153" s="3">
+      <c r="E153" s="2">
         <v>24.61</v>
       </c>
-      <c r="F153" s="3">
+      <c r="F153" s="2">
         <v>45.94</v>
       </c>
-      <c r="G153" s="3">
+      <c r="G153" s="2">
         <v>17.45</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" s="2">
+      <c r="A154" s="1">
         <v>43754</v>
       </c>
-      <c r="B154" s="3">
+      <c r="B154" s="2">
         <v>2978.7123999999999</v>
       </c>
-      <c r="C154" s="3">
+      <c r="C154" s="2">
         <v>16.79</v>
       </c>
-      <c r="D154" s="3">
+      <c r="D154" s="2">
         <v>1170</v>
       </c>
-      <c r="E154" s="3">
+      <c r="E154" s="2">
         <v>23.45</v>
       </c>
-      <c r="F154" s="3">
+      <c r="F154" s="2">
         <v>44.05</v>
       </c>
-      <c r="G154" s="3">
+      <c r="G154" s="2">
         <v>17.14</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" s="2">
+      <c r="A155" s="1">
         <v>43755</v>
       </c>
-      <c r="B155" s="3">
+      <c r="B155" s="2">
         <v>2977.3341999999998</v>
       </c>
-      <c r="C155" s="3">
+      <c r="C155" s="2">
         <v>16.7</v>
       </c>
-      <c r="D155" s="3">
+      <c r="D155" s="2">
         <v>1183.33</v>
       </c>
-      <c r="E155" s="3">
+      <c r="E155" s="2">
         <v>23.25</v>
       </c>
-      <c r="F155" s="3">
+      <c r="F155" s="2">
         <v>43.32</v>
       </c>
-      <c r="G155" s="3">
+      <c r="G155" s="2">
         <v>16.899999999999999</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A156" s="2">
+      <c r="A156" s="1">
         <v>43756</v>
       </c>
-      <c r="B156" s="3">
+      <c r="B156" s="2">
         <v>2938.1412999999998</v>
       </c>
-      <c r="C156" s="3">
+      <c r="C156" s="2">
         <v>16.510000000000002</v>
       </c>
-      <c r="D156" s="3">
+      <c r="D156" s="2">
         <v>1175.79</v>
       </c>
-      <c r="E156" s="3">
+      <c r="E156" s="2">
         <v>22.56</v>
       </c>
-      <c r="F156" s="3">
+      <c r="F156" s="2">
         <v>43.93</v>
       </c>
-      <c r="G156" s="3">
+      <c r="G156" s="2">
         <v>16.61</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A157" s="2">
+      <c r="A157" s="1">
         <v>43759</v>
       </c>
-      <c r="B157" s="3">
+      <c r="B157" s="2">
         <v>2939.6179000000002</v>
       </c>
-      <c r="C157" s="3">
+      <c r="C157" s="2">
         <v>16.89</v>
       </c>
-      <c r="D157" s="3">
+      <c r="D157" s="2">
         <v>1168.5</v>
       </c>
-      <c r="E157" s="3">
+      <c r="E157" s="2">
         <v>22.18</v>
       </c>
-      <c r="F157" s="3">
+      <c r="F157" s="2">
         <v>41.81</v>
       </c>
-      <c r="G157" s="3">
+      <c r="G157" s="2">
         <v>16.61</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A158" s="2">
+      <c r="A158" s="1">
         <v>43760</v>
       </c>
-      <c r="B158" s="3">
+      <c r="B158" s="2">
         <v>2954.3798999999999</v>
       </c>
-      <c r="C158" s="3">
+      <c r="C158" s="2">
         <v>16.420000000000002</v>
       </c>
-      <c r="D158" s="3">
+      <c r="D158" s="2">
         <v>1170.8</v>
       </c>
-      <c r="E158" s="3">
+      <c r="E158" s="2">
         <v>22.45</v>
       </c>
-      <c r="F158" s="3">
+      <c r="F158" s="2">
         <v>42.15</v>
       </c>
-      <c r="G158" s="3">
+      <c r="G158" s="2">
         <v>17.16</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A159" s="2">
+      <c r="A159" s="1">
         <v>43761</v>
       </c>
-      <c r="B159" s="3">
+      <c r="B159" s="2">
         <v>2941.6188000000002</v>
       </c>
-      <c r="C159" s="3">
+      <c r="C159" s="2">
         <v>16.45</v>
       </c>
-      <c r="D159" s="3">
+      <c r="D159" s="2">
         <v>1158.9100000000001</v>
       </c>
-      <c r="E159" s="3">
+      <c r="E159" s="2">
         <v>22.16</v>
       </c>
-      <c r="F159" s="3">
+      <c r="F159" s="2">
         <v>44.83</v>
       </c>
-      <c r="G159" s="3">
+      <c r="G159" s="2">
         <v>16.809999999999999</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A160" s="2">
+      <c r="A160" s="1">
         <v>43762</v>
       </c>
-      <c r="B160" s="3">
+      <c r="B160" s="2">
         <v>2940.9214999999999</v>
       </c>
-      <c r="C160" s="3">
+      <c r="C160" s="2">
         <v>16.87</v>
       </c>
-      <c r="D160" s="3">
+      <c r="D160" s="2">
         <v>1150.27</v>
       </c>
-      <c r="E160" s="3">
+      <c r="E160" s="2">
         <v>22.28</v>
       </c>
-      <c r="F160" s="3">
+      <c r="F160" s="2">
         <v>44</v>
       </c>
-      <c r="G160" s="3">
+      <c r="G160" s="2">
         <v>16.8</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A161" s="2">
+      <c r="A161" s="1">
         <v>43763</v>
       </c>
-      <c r="B161" s="3">
+      <c r="B161" s="2">
         <v>2954.9326999999998</v>
       </c>
-      <c r="C161" s="3">
+      <c r="C161" s="2">
         <v>16.88</v>
       </c>
-      <c r="D161" s="3">
+      <c r="D161" s="2">
         <v>1171.3499999999999</v>
       </c>
-      <c r="E161" s="3">
+      <c r="E161" s="2">
         <v>22.64</v>
       </c>
-      <c r="F161" s="3">
+      <c r="F161" s="2">
         <v>42.85</v>
       </c>
-      <c r="G161" s="3">
+      <c r="G161" s="2">
         <v>16.8</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A162" s="2">
+      <c r="A162" s="1">
         <v>43766</v>
       </c>
-      <c r="B162" s="3">
+      <c r="B162" s="2">
         <v>2980.0497999999998</v>
       </c>
-      <c r="C162" s="3">
+      <c r="C162" s="2">
         <v>16.66</v>
       </c>
-      <c r="D162" s="3">
+      <c r="D162" s="2">
         <v>1178.29</v>
       </c>
-      <c r="E162" s="3">
+      <c r="E162" s="2">
         <v>23.45</v>
       </c>
-      <c r="F162" s="3">
+      <c r="F162" s="2">
         <v>43.83</v>
       </c>
-      <c r="G162" s="3">
+      <c r="G162" s="2">
         <v>15.12</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A163" s="2">
+      <c r="A163" s="1">
         <v>43767</v>
       </c>
-      <c r="B163" s="3">
+      <c r="B163" s="2">
         <v>2954.1759999999999</v>
       </c>
-      <c r="C163" s="3">
+      <c r="C163" s="2">
         <v>16.91</v>
       </c>
-      <c r="D163" s="3">
+      <c r="D163" s="2">
         <v>1193</v>
       </c>
-      <c r="E163" s="3">
+      <c r="E163" s="2">
         <v>22.62</v>
       </c>
-      <c r="F163" s="3">
+      <c r="F163" s="2">
         <v>41.75</v>
       </c>
-      <c r="G163" s="3">
+      <c r="G163" s="2">
         <v>14.69</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A164" s="2">
+      <c r="A164" s="1">
         <v>43768</v>
       </c>
-      <c r="B164" s="3">
+      <c r="B164" s="2">
         <v>2939.3209000000002</v>
       </c>
-      <c r="C164" s="3">
+      <c r="C164" s="2">
         <v>16.43</v>
       </c>
-      <c r="D164" s="3">
+      <c r="D164" s="2">
         <v>1183.8</v>
       </c>
-      <c r="E164" s="3">
+      <c r="E164" s="2">
         <v>22.14</v>
       </c>
-      <c r="F164" s="3">
+      <c r="F164" s="2">
         <v>40.4</v>
       </c>
-      <c r="G164" s="3">
+      <c r="G164" s="2">
         <v>14.17</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A165" s="2">
+      <c r="A165" s="1">
         <v>43769</v>
       </c>
-      <c r="B165" s="3">
+      <c r="B165" s="2">
         <v>2929.0560999999998</v>
       </c>
-      <c r="C165" s="3">
+      <c r="C165" s="2">
         <v>16.260000000000002</v>
       </c>
-      <c r="D165" s="3">
+      <c r="D165" s="2">
         <v>1180.01</v>
       </c>
-      <c r="E165" s="3">
+      <c r="E165" s="2">
         <v>22.2</v>
       </c>
-      <c r="F165" s="3">
+      <c r="F165" s="2">
         <v>38.61</v>
       </c>
-      <c r="G165" s="3">
+      <c r="G165" s="2">
         <v>13.9</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A166" s="2">
+      <c r="A166" s="1">
         <v>43770</v>
       </c>
-      <c r="B166" s="3">
+      <c r="B166" s="2">
         <v>2958.1992</v>
       </c>
-      <c r="C166" s="3">
+      <c r="C166" s="2">
         <v>16.86</v>
       </c>
-      <c r="D166" s="3">
+      <c r="D166" s="2">
         <v>1185</v>
       </c>
-      <c r="E166" s="3">
+      <c r="E166" s="2">
         <v>22.45</v>
       </c>
-      <c r="F166" s="3">
+      <c r="F166" s="2">
         <v>38.950000000000003</v>
       </c>
-      <c r="G166" s="3">
+      <c r="G166" s="2">
         <v>14.09</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A167" s="2">
+      <c r="A167" s="1">
         <v>43773</v>
       </c>
-      <c r="B167" s="3">
+      <c r="B167" s="2">
         <v>2975.4919</v>
       </c>
-      <c r="C167" s="3">
+      <c r="C167" s="2">
         <v>16.920000000000002</v>
       </c>
-      <c r="D167" s="3">
+      <c r="D167" s="2">
         <v>1199.5899999999999</v>
       </c>
-      <c r="E167" s="3">
+      <c r="E167" s="2">
         <v>22.6</v>
       </c>
-      <c r="F167" s="3">
+      <c r="F167" s="2">
         <v>39.11</v>
       </c>
-      <c r="G167" s="3">
+      <c r="G167" s="2">
         <v>13.8</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A168" s="2">
+      <c r="A168" s="1">
         <v>43774</v>
       </c>
-      <c r="B168" s="3">
+      <c r="B168" s="2">
         <v>2991.5621999999998</v>
       </c>
-      <c r="C168" s="3">
+      <c r="C168" s="2">
         <v>17.149999999999999</v>
       </c>
-      <c r="D168" s="3">
+      <c r="D168" s="2">
         <v>1199</v>
       </c>
-      <c r="E168" s="3">
+      <c r="E168" s="2">
         <v>23.24</v>
       </c>
-      <c r="F168" s="3">
+      <c r="F168" s="2">
         <v>37.57</v>
       </c>
-      <c r="G168" s="3">
+      <c r="G168" s="2">
         <v>13.82</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A169" s="2">
+      <c r="A169" s="1">
         <v>43775</v>
       </c>
-      <c r="B169" s="3">
+      <c r="B169" s="2">
         <v>2978.5954999999999</v>
       </c>
-      <c r="C169" s="3">
+      <c r="C169" s="2">
         <v>16.96</v>
       </c>
-      <c r="D169" s="3">
+      <c r="D169" s="2">
         <v>1193</v>
       </c>
-      <c r="E169" s="3">
+      <c r="E169" s="2">
         <v>22.84</v>
       </c>
-      <c r="F169" s="3">
+      <c r="F169" s="2">
         <v>36.020000000000003</v>
       </c>
-      <c r="G169" s="3">
+      <c r="G169" s="2">
         <v>13.41</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A170" s="2">
+      <c r="A170" s="1">
         <v>43776</v>
       </c>
-      <c r="B170" s="3">
+      <c r="B170" s="2">
         <v>2978.7143999999998</v>
       </c>
-      <c r="C170" s="3">
+      <c r="C170" s="2">
         <v>16.89</v>
       </c>
-      <c r="D170" s="3">
+      <c r="D170" s="2">
         <v>1201.3699999999999</v>
       </c>
-      <c r="E170" s="3">
+      <c r="E170" s="2">
         <v>22.55</v>
       </c>
-      <c r="F170" s="3">
+      <c r="F170" s="2">
         <v>35.85</v>
       </c>
-      <c r="G170" s="3">
+      <c r="G170" s="2">
         <v>13.66</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A171" s="2">
+      <c r="A171" s="1">
         <v>43777</v>
       </c>
-      <c r="B171" s="3">
+      <c r="B171" s="2">
         <v>2964.1849000000002</v>
       </c>
-      <c r="C171" s="3">
+      <c r="C171" s="2">
         <v>16.649999999999999</v>
       </c>
-      <c r="D171" s="3">
+      <c r="D171" s="2">
         <v>1205</v>
       </c>
-      <c r="E171" s="3">
+      <c r="E171" s="2">
         <v>22.49</v>
       </c>
-      <c r="F171" s="3">
+      <c r="F171" s="2">
         <v>36.14</v>
       </c>
-      <c r="G171" s="3">
+      <c r="G171" s="2">
         <v>13.55</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A172" s="2">
+      <c r="A172" s="1">
         <v>43780</v>
       </c>
-      <c r="B172" s="3">
+      <c r="B172" s="2">
         <v>2909.9746</v>
       </c>
-      <c r="C172" s="3">
+      <c r="C172" s="2">
         <v>16.28</v>
       </c>
-      <c r="D172" s="3">
+      <c r="D172" s="2">
         <v>1199</v>
       </c>
-      <c r="E172" s="3">
+      <c r="E172" s="2">
         <v>22.26</v>
       </c>
-      <c r="F172" s="3">
+      <c r="F172" s="2">
         <v>33.33</v>
       </c>
-      <c r="G172" s="3">
+      <c r="G172" s="2">
         <v>13.23</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A173" s="2">
+      <c r="A173" s="1">
         <v>43781</v>
       </c>
-      <c r="B173" s="3">
+      <c r="B173" s="2">
         <v>2914.8231999999998</v>
       </c>
-      <c r="C173" s="3">
+      <c r="C173" s="2">
         <v>16.329999999999998</v>
       </c>
-      <c r="D173" s="3">
+      <c r="D173" s="2">
         <v>1201.5999999999999</v>
       </c>
-      <c r="E173" s="3">
+      <c r="E173" s="2">
         <v>22.5</v>
       </c>
-      <c r="F173" s="3">
+      <c r="F173" s="2">
         <v>33.08</v>
       </c>
-      <c r="G173" s="3">
+      <c r="G173" s="2">
         <v>13.59</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A174" s="2">
+      <c r="A174" s="1">
         <v>43782</v>
       </c>
-      <c r="B174" s="3">
+      <c r="B174" s="2">
         <v>2905.2408999999998</v>
       </c>
-      <c r="C174" s="3">
+      <c r="C174" s="2">
         <v>16.329999999999998</v>
       </c>
-      <c r="D174" s="3">
+      <c r="D174" s="2">
         <v>1224</v>
       </c>
-      <c r="E174" s="3">
+      <c r="E174" s="2">
         <v>22.25</v>
       </c>
-      <c r="F174" s="3">
+      <c r="F174" s="2">
         <v>33.21</v>
       </c>
-      <c r="G174" s="3">
+      <c r="G174" s="2">
         <v>13.68</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A175" s="2">
+      <c r="A175" s="1">
         <v>43783</v>
       </c>
-      <c r="B175" s="3">
+      <c r="B175" s="2">
         <v>2909.8697000000002</v>
       </c>
-      <c r="C175" s="3">
+      <c r="C175" s="2">
         <v>16.32</v>
       </c>
-      <c r="D175" s="3">
+      <c r="D175" s="2">
         <v>1230</v>
       </c>
-      <c r="E175" s="3">
+      <c r="E175" s="2">
         <v>22.6</v>
       </c>
-      <c r="F175" s="3">
+      <c r="F175" s="2">
         <v>33.549999999999997</v>
       </c>
-      <c r="G175" s="3">
+      <c r="G175" s="2">
         <v>13.5</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A176" s="2">
+      <c r="A176" s="1">
         <v>43784</v>
       </c>
-      <c r="B176" s="3">
+      <c r="B176" s="2">
         <v>2891.3431</v>
       </c>
-      <c r="C176" s="3">
+      <c r="C176" s="2">
         <v>16.34</v>
       </c>
-      <c r="D176" s="3">
+      <c r="D176" s="2">
         <v>1224.9000000000001</v>
       </c>
-      <c r="E176" s="3">
+      <c r="E176" s="2">
         <v>22.18</v>
       </c>
-      <c r="F176" s="3">
+      <c r="F176" s="2">
         <v>33.58</v>
       </c>
-      <c r="G176" s="3">
+      <c r="G176" s="2">
         <v>13.4</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A177" s="2">
+      <c r="A177" s="1">
         <v>43787</v>
       </c>
-      <c r="B177" s="3">
+      <c r="B177" s="2">
         <v>2909.2002000000002</v>
       </c>
-      <c r="C177" s="3">
+      <c r="C177" s="2">
         <v>16.45</v>
       </c>
-      <c r="D177" s="3">
+      <c r="D177" s="2">
         <v>1227.28</v>
       </c>
-      <c r="E177" s="3">
+      <c r="E177" s="2">
         <v>22.41</v>
       </c>
-      <c r="F177" s="3">
+      <c r="F177" s="2">
         <v>33.51</v>
       </c>
-      <c r="G177" s="3">
+      <c r="G177" s="2">
         <v>13.49</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A178" s="2">
+      <c r="A178" s="1">
         <v>43788</v>
       </c>
-      <c r="B178" s="3">
+      <c r="B178" s="2">
         <v>2933.9908</v>
       </c>
-      <c r="C178" s="3">
+      <c r="C178" s="2">
         <v>16.41</v>
       </c>
-      <c r="D178" s="3">
+      <c r="D178" s="2">
         <v>1232.32</v>
       </c>
-      <c r="E178" s="3">
+      <c r="E178" s="2">
         <v>22.88</v>
       </c>
-      <c r="F178" s="3">
+      <c r="F178" s="2">
         <v>34.020000000000003</v>
       </c>
-      <c r="G178" s="3">
+      <c r="G178" s="2">
         <v>13.77</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A179" s="2">
+      <c r="A179" s="1">
         <v>43789</v>
       </c>
-      <c r="B179" s="3">
+      <c r="B179" s="2">
         <v>2911.0533999999998</v>
       </c>
-      <c r="C179" s="3">
+      <c r="C179" s="2">
         <v>15.85</v>
       </c>
-      <c r="D179" s="3">
+      <c r="D179" s="2">
         <v>1233.75</v>
       </c>
-      <c r="E179" s="3">
+      <c r="E179" s="2">
         <v>22.59</v>
       </c>
-      <c r="F179" s="3">
+      <c r="F179" s="2">
         <v>33.17</v>
       </c>
-      <c r="G179" s="3">
+      <c r="G179" s="2">
         <v>13.56</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A180" s="2">
+      <c r="A180" s="1">
         <v>43790</v>
       </c>
-      <c r="B180" s="3">
+      <c r="B180" s="2">
         <v>2903.6379000000002</v>
       </c>
-      <c r="C180" s="3">
+      <c r="C180" s="2">
         <v>15.86</v>
       </c>
-      <c r="D180" s="3">
+      <c r="D180" s="2">
         <v>1231.3</v>
       </c>
-      <c r="E180" s="3">
+      <c r="E180" s="2">
         <v>22.4</v>
       </c>
-      <c r="F180" s="3">
+      <c r="F180" s="2">
         <v>31.91</v>
       </c>
-      <c r="G180" s="3">
+      <c r="G180" s="2">
         <v>13.8</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A181" s="2">
+      <c r="A181" s="1">
         <v>43791</v>
       </c>
-      <c r="B181" s="3">
+      <c r="B181" s="2">
         <v>2885.2883999999999</v>
       </c>
-      <c r="C181" s="3">
+      <c r="C181" s="2">
         <v>15.59</v>
       </c>
-      <c r="D181" s="3">
+      <c r="D181" s="2">
         <v>1194</v>
       </c>
-      <c r="E181" s="3">
+      <c r="E181" s="2">
         <v>22.68</v>
       </c>
-      <c r="F181" s="3">
+      <c r="F181" s="2">
         <v>31.49</v>
       </c>
-      <c r="G181" s="3">
+      <c r="G181" s="2">
         <v>13.73</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A182" s="2">
+      <c r="A182" s="1">
         <v>43794</v>
       </c>
-      <c r="B182" s="3">
+      <c r="B182" s="2">
         <v>2906.1687999999999</v>
       </c>
-      <c r="C182" s="3">
+      <c r="C182" s="2">
         <v>15.8</v>
       </c>
-      <c r="D182" s="3">
+      <c r="D182" s="2">
         <v>1182.06</v>
       </c>
-      <c r="E182" s="3">
+      <c r="E182" s="2">
         <v>23.07</v>
       </c>
-      <c r="F182" s="3">
+      <c r="F182" s="2">
         <v>30.72</v>
       </c>
-      <c r="G182" s="3">
+      <c r="G182" s="2">
         <v>13.45</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A183" s="2">
+      <c r="A183" s="1">
         <v>43795</v>
       </c>
-      <c r="B183" s="3">
+      <c r="B183" s="2">
         <v>2907.0601999999999</v>
       </c>
-      <c r="C183" s="3">
+      <c r="C183" s="2">
         <v>15.62</v>
       </c>
-      <c r="D183" s="3">
+      <c r="D183" s="2">
         <v>1185</v>
       </c>
-      <c r="E183" s="3">
+      <c r="E183" s="2">
         <v>22.9</v>
       </c>
-      <c r="F183" s="3">
+      <c r="F183" s="2">
         <v>30.64</v>
       </c>
-      <c r="G183" s="3">
+      <c r="G183" s="2">
         <v>13.68</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A184" s="2">
+      <c r="A184" s="1">
         <v>43796</v>
       </c>
-      <c r="B184" s="3">
+      <c r="B184" s="2">
         <v>2903.1947</v>
       </c>
-      <c r="C184" s="3">
+      <c r="C184" s="2">
         <v>15.47</v>
       </c>
-      <c r="D184" s="3">
+      <c r="D184" s="2">
         <v>1189.95</v>
       </c>
-      <c r="E184" s="3">
+      <c r="E184" s="2">
         <v>22.52</v>
       </c>
-      <c r="F184" s="3">
+      <c r="F184" s="2">
         <v>30.68</v>
       </c>
-      <c r="G184" s="3">
+      <c r="G184" s="2">
         <v>13.5</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A185" s="2">
+      <c r="A185" s="1">
         <v>43797</v>
       </c>
-      <c r="B185" s="3">
+      <c r="B185" s="2">
         <v>2889.6934000000001</v>
       </c>
-      <c r="C185" s="3">
+      <c r="C185" s="2">
         <v>15.49</v>
       </c>
-      <c r="D185" s="3">
+      <c r="D185" s="2">
         <v>1175.8</v>
       </c>
-      <c r="E185" s="3">
+      <c r="E185" s="2">
         <v>22.35</v>
       </c>
-      <c r="F185" s="3">
+      <c r="F185" s="2">
         <v>30.86</v>
       </c>
-      <c r="G185" s="3">
+      <c r="G185" s="2">
         <v>13.33</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A186" s="2">
+      <c r="A186" s="1">
         <v>43798</v>
       </c>
-      <c r="B186" s="3">
+      <c r="B186" s="2">
         <v>2871.9812999999999</v>
       </c>
-      <c r="C186" s="3">
+      <c r="C186" s="2">
         <v>15.29</v>
       </c>
-      <c r="D186" s="3">
+      <c r="D186" s="2">
         <v>1129</v>
       </c>
-      <c r="E186" s="3">
+      <c r="E186" s="2">
         <v>22.39</v>
       </c>
-      <c r="F186" s="3">
+      <c r="F186" s="2">
         <v>31.9</v>
       </c>
-      <c r="G186" s="3">
+      <c r="G186" s="2">
         <v>13.35</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A187" s="2">
+      <c r="A187" s="1">
         <v>43801</v>
       </c>
-      <c r="B187" s="3">
+      <c r="B187" s="2">
         <v>2875.8072000000002</v>
       </c>
-      <c r="C187" s="3">
+      <c r="C187" s="2">
         <v>15.36</v>
       </c>
-      <c r="D187" s="3">
+      <c r="D187" s="2">
         <v>1133</v>
       </c>
-      <c r="E187" s="3">
+      <c r="E187" s="2">
         <v>22.44</v>
       </c>
-      <c r="F187" s="3">
+      <c r="F187" s="2">
         <v>32.380000000000003</v>
       </c>
-      <c r="G187" s="3">
+      <c r="G187" s="2">
         <v>13.3</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A188" s="2">
+      <c r="A188" s="1">
         <v>43802</v>
       </c>
-      <c r="B188" s="3">
+      <c r="B188" s="2">
         <v>2884.6988000000001</v>
       </c>
-      <c r="C188" s="3">
+      <c r="C188" s="2">
         <v>15.45</v>
       </c>
-      <c r="D188" s="3">
+      <c r="D188" s="2">
         <v>1118</v>
       </c>
-      <c r="E188" s="3">
+      <c r="E188" s="2">
         <v>22.64</v>
       </c>
-      <c r="F188" s="3">
+      <c r="F188" s="2">
         <v>31.2</v>
       </c>
-      <c r="G188" s="3">
+      <c r="G188" s="2">
         <v>13.2</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A189" s="2">
+      <c r="A189" s="1">
         <v>43803</v>
       </c>
-      <c r="B189" s="3">
+      <c r="B189" s="2">
         <v>2878.1156999999998</v>
       </c>
-      <c r="C189" s="3">
+      <c r="C189" s="2">
         <v>15.31</v>
       </c>
-      <c r="D189" s="3">
+      <c r="D189" s="2">
         <v>1122.33</v>
       </c>
-      <c r="E189" s="3">
+      <c r="E189" s="2">
         <v>22.35</v>
       </c>
-      <c r="F189" s="3">
+      <c r="F189" s="2">
         <v>31.82</v>
       </c>
-      <c r="G189" s="3">
+      <c r="G189" s="2">
         <v>13.29</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A190" s="2">
+      <c r="A190" s="1">
         <v>43804</v>
       </c>
-      <c r="B190" s="3">
+      <c r="B190" s="2">
         <v>2899.4684999999999</v>
       </c>
-      <c r="C190" s="3">
+      <c r="C190" s="2">
         <v>15.43</v>
       </c>
-      <c r="D190" s="3">
+      <c r="D190" s="2">
         <v>1129.8</v>
       </c>
-      <c r="E190" s="3">
+      <c r="E190" s="2">
         <v>22.71</v>
       </c>
-      <c r="F190" s="3">
+      <c r="F190" s="2">
         <v>32.450000000000003</v>
       </c>
-      <c r="G190" s="3">
+      <c r="G190" s="2">
         <v>13.41</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A191" s="2">
+      <c r="A191" s="1">
         <v>43805</v>
       </c>
-      <c r="B191" s="3">
+      <c r="B191" s="2">
         <v>2912.0136000000002</v>
       </c>
-      <c r="C191" s="3">
+      <c r="C191" s="2">
         <v>15.6</v>
       </c>
-      <c r="D191" s="3">
+      <c r="D191" s="2">
         <v>1170</v>
       </c>
-      <c r="E191" s="3">
+      <c r="E191" s="2">
         <v>22.68</v>
       </c>
-      <c r="F191" s="3">
+      <c r="F191" s="2">
         <v>32.85</v>
       </c>
-      <c r="G191" s="3">
+      <c r="G191" s="2">
         <v>13.46</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A192" s="2">
+      <c r="A192" s="1">
         <v>43808</v>
       </c>
-      <c r="B192" s="3">
+      <c r="B192" s="2">
         <v>2914.4775</v>
       </c>
-      <c r="C192" s="3">
+      <c r="C192" s="2">
         <v>15.41</v>
       </c>
-      <c r="D192" s="3">
+      <c r="D192" s="2">
         <v>1158.7</v>
       </c>
-      <c r="E192" s="3">
+      <c r="E192" s="2">
         <v>22.7</v>
       </c>
-      <c r="F192" s="3">
+      <c r="F192" s="2">
         <v>39.42</v>
       </c>
-      <c r="G192" s="3">
+      <c r="G192" s="2">
         <v>13.54</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A193" s="2">
+      <c r="A193" s="1">
         <v>43809</v>
       </c>
-      <c r="B193" s="3">
+      <c r="B193" s="2">
         <v>2917.3157000000001</v>
       </c>
-      <c r="C193" s="3">
+      <c r="C193" s="2">
         <v>15.33</v>
       </c>
-      <c r="D193" s="3">
+      <c r="D193" s="2">
         <v>1164.4000000000001</v>
       </c>
-      <c r="E193" s="3">
+      <c r="E193" s="2">
         <v>22.55</v>
       </c>
-      <c r="F193" s="3">
+      <c r="F193" s="2">
         <v>47.3</v>
       </c>
-      <c r="G193" s="3">
+      <c r="G193" s="2">
         <v>13.54</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A194" s="2">
+      <c r="A194" s="1">
         <v>43810</v>
       </c>
-      <c r="B194" s="3">
+      <c r="B194" s="2">
         <v>2924.4173000000001</v>
       </c>
-      <c r="C194" s="3">
+      <c r="C194" s="2">
         <v>15.66</v>
       </c>
-      <c r="D194" s="3">
+      <c r="D194" s="2">
         <v>1158.98</v>
       </c>
-      <c r="E194" s="3">
+      <c r="E194" s="2">
         <v>22.64</v>
       </c>
-      <c r="F194" s="3">
+      <c r="F194" s="2">
         <v>49.7</v>
       </c>
-      <c r="G194" s="3">
+      <c r="G194" s="2">
         <v>13.71</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A195" s="2">
+      <c r="A195" s="1">
         <v>43811</v>
       </c>
-      <c r="B195" s="3">
+      <c r="B195" s="2">
         <v>2915.6983</v>
       </c>
-      <c r="C195" s="3">
+      <c r="C195" s="2">
         <v>15.6</v>
       </c>
-      <c r="D195" s="3">
+      <c r="D195" s="2">
         <v>1137</v>
       </c>
-      <c r="E195" s="3">
+      <c r="E195" s="2">
         <v>22.41</v>
       </c>
-      <c r="F195" s="3">
+      <c r="F195" s="2">
         <v>48.15</v>
       </c>
-      <c r="G195" s="3">
+      <c r="G195" s="2">
         <v>13.66</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A196" s="2">
+      <c r="A196" s="1">
         <v>43812</v>
       </c>
-      <c r="B196" s="3">
+      <c r="B196" s="2">
         <v>2967.6763999999998</v>
       </c>
-      <c r="C196" s="3">
+      <c r="C196" s="2">
         <v>16.12</v>
       </c>
-      <c r="D196" s="3">
+      <c r="D196" s="2">
         <v>1163</v>
       </c>
-      <c r="E196" s="3">
+      <c r="E196" s="2">
         <v>24.65</v>
       </c>
-      <c r="F196" s="3">
+      <c r="F196" s="2">
         <v>44.38</v>
       </c>
-      <c r="G196" s="3">
+      <c r="G196" s="2">
         <v>13.74</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A197" s="2">
+      <c r="A197" s="1">
         <v>43815</v>
       </c>
-      <c r="B197" s="3">
+      <c r="B197" s="2">
         <v>2984.3924999999999</v>
       </c>
-      <c r="C197" s="3">
+      <c r="C197" s="2">
         <v>16.13</v>
       </c>
-      <c r="D197" s="3">
+      <c r="D197" s="2">
         <v>1147.92</v>
       </c>
-      <c r="E197" s="3">
+      <c r="E197" s="2">
         <v>27.12</v>
       </c>
-      <c r="F197" s="3">
+      <c r="F197" s="2">
         <v>45.02</v>
       </c>
-      <c r="G197" s="3">
+      <c r="G197" s="2">
         <v>13.84</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A198" s="2">
+      <c r="A198" s="1">
         <v>43816</v>
       </c>
-      <c r="B198" s="3">
+      <c r="B198" s="2">
         <v>3022.4218999999998</v>
       </c>
-      <c r="C198" s="3">
+      <c r="C198" s="2">
         <v>16.5</v>
       </c>
-      <c r="D198" s="3">
+      <c r="D198" s="2">
         <v>1169.98</v>
       </c>
-      <c r="E198" s="3">
+      <c r="E198" s="2">
         <v>27.46</v>
       </c>
-      <c r="F198" s="3">
+      <c r="F198" s="2">
         <v>45.1</v>
       </c>
-      <c r="G198" s="3">
+      <c r="G198" s="2">
         <v>13.98</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A199" s="2">
+      <c r="A199" s="1">
         <v>43817</v>
       </c>
-      <c r="B199" s="3">
+      <c r="B199" s="2">
         <v>3017.0444000000002</v>
       </c>
-      <c r="C199" s="3">
+      <c r="C199" s="2">
         <v>16.46</v>
       </c>
-      <c r="D199" s="3">
+      <c r="D199" s="2">
         <v>1168</v>
       </c>
-      <c r="E199" s="3">
+      <c r="E199" s="2">
         <v>28.04</v>
       </c>
-      <c r="F199" s="3">
+      <c r="F199" s="2">
         <v>50.28</v>
       </c>
-      <c r="G199" s="3">
+      <c r="G199" s="2">
         <v>13.87</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A200" s="2">
+      <c r="A200" s="1">
         <v>43818</v>
       </c>
-      <c r="B200" s="3">
+      <c r="B200" s="2">
         <v>3017.0657999999999</v>
       </c>
-      <c r="C200" s="3">
+      <c r="C200" s="2">
         <v>16.55</v>
       </c>
-      <c r="D200" s="3">
+      <c r="D200" s="2">
         <v>1157.4000000000001</v>
       </c>
-      <c r="E200" s="3">
+      <c r="E200" s="2">
         <v>27.7</v>
       </c>
-      <c r="F200" s="3">
+      <c r="F200" s="2">
         <v>47.1</v>
       </c>
-      <c r="G200" s="3">
+      <c r="G200" s="2">
         <v>13.99</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A201" s="2">
+      <c r="A201" s="1">
         <v>43819</v>
       </c>
-      <c r="B201" s="3">
+      <c r="B201" s="2">
         <v>3004.9376000000002</v>
       </c>
-      <c r="C201" s="3">
+      <c r="C201" s="2">
         <v>16.59</v>
       </c>
-      <c r="D201" s="3">
+      <c r="D201" s="2">
         <v>1146.3</v>
       </c>
-      <c r="E201" s="3">
+      <c r="E201" s="2">
         <v>27.97</v>
       </c>
-      <c r="F201" s="3">
+      <c r="F201" s="2">
         <v>45.92</v>
       </c>
-      <c r="G201" s="3">
+      <c r="G201" s="2">
         <v>14.84</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A202" s="2">
+      <c r="A202" s="1">
         <v>43822</v>
       </c>
-      <c r="B202" s="3">
+      <c r="B202" s="2">
         <v>2962.7512999999999</v>
       </c>
-      <c r="C202" s="3">
+      <c r="C202" s="2">
         <v>16.239999999999998</v>
       </c>
-      <c r="D202" s="3">
+      <c r="D202" s="2">
         <v>1149.3</v>
       </c>
-      <c r="E202" s="3">
+      <c r="E202" s="2">
         <v>26.67</v>
       </c>
-      <c r="F202" s="3">
+      <c r="F202" s="2">
         <v>42.2</v>
       </c>
-      <c r="G202" s="3">
+      <c r="G202" s="2">
         <v>14.21</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A203" s="2">
+      <c r="A203" s="1">
         <v>43823</v>
       </c>
-      <c r="B203" s="3">
+      <c r="B203" s="2">
         <v>2982.6806000000001</v>
       </c>
-      <c r="C203" s="3">
+      <c r="C203" s="2">
         <v>16.399999999999999</v>
       </c>
-      <c r="D203" s="3">
+      <c r="D203" s="2">
         <v>1148</v>
       </c>
-      <c r="E203" s="3">
+      <c r="E203" s="2">
         <v>28.01</v>
       </c>
-      <c r="F203" s="3">
+      <c r="F203" s="2">
         <v>44.2</v>
       </c>
-      <c r="G203" s="3">
+      <c r="G203" s="2">
         <v>14.02</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A204" s="2">
+      <c r="A204" s="1">
         <v>43824</v>
       </c>
-      <c r="B204" s="3">
+      <c r="B204" s="2">
         <v>2981.8805000000002</v>
       </c>
-      <c r="C204" s="3">
+      <c r="C204" s="2">
         <v>16.3</v>
       </c>
-      <c r="D204" s="3">
+      <c r="D204" s="2">
         <v>1133.7</v>
       </c>
-      <c r="E204" s="3">
+      <c r="E204" s="2">
         <v>27.87</v>
       </c>
-      <c r="F204" s="3">
+      <c r="F204" s="2">
         <v>45.45</v>
       </c>
-      <c r="G204" s="3">
+      <c r="G204" s="2">
         <v>14.04</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A205" s="2">
+      <c r="A205" s="1">
         <v>43825</v>
       </c>
-      <c r="B205" s="3">
+      <c r="B205" s="2">
         <v>3007.3546000000001</v>
       </c>
-      <c r="C205" s="3">
+      <c r="C205" s="2">
         <v>16.47</v>
       </c>
-      <c r="D205" s="3">
+      <c r="D205" s="2">
         <v>1135.0999999999999</v>
       </c>
-      <c r="E205" s="3">
+      <c r="E205" s="2">
         <v>30.51</v>
       </c>
-      <c r="F205" s="3">
+      <c r="F205" s="2">
         <v>44.62</v>
       </c>
-      <c r="G205" s="3">
+      <c r="G205" s="2">
         <v>14.04</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A206" s="2">
+      <c r="A206" s="1">
         <v>43826</v>
       </c>
-      <c r="B206" s="3">
+      <c r="B206" s="2">
         <v>3005.0355</v>
       </c>
-      <c r="C206" s="3">
+      <c r="C206" s="2">
         <v>16.63</v>
       </c>
-      <c r="D206" s="3">
+      <c r="D206" s="2">
         <v>1163</v>
       </c>
-      <c r="E206" s="3">
+      <c r="E206" s="2">
         <v>28.81</v>
       </c>
-      <c r="F206" s="3">
+      <c r="F206" s="2">
         <v>45.31</v>
       </c>
-      <c r="G206" s="3">
+      <c r="G206" s="2">
         <v>13.95</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A207" s="2">
+      <c r="A207" s="1">
         <v>43829</v>
       </c>
-      <c r="B207" s="3">
+      <c r="B207" s="2">
         <v>3040.0239000000001</v>
       </c>
-      <c r="C207" s="3">
+      <c r="C207" s="2">
         <v>16.57</v>
       </c>
-      <c r="D207" s="3">
+      <c r="D207" s="2">
         <v>1185.8</v>
       </c>
-      <c r="E207" s="3">
+      <c r="E207" s="2">
         <v>30.95</v>
       </c>
-      <c r="F207" s="3">
+      <c r="F207" s="2">
         <v>44.1</v>
       </c>
-      <c r="G207" s="3">
+      <c r="G207" s="2">
         <v>13.78</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A208" s="2">
+      <c r="A208" s="1">
         <v>43830</v>
       </c>
-      <c r="B208" s="3">
+      <c r="B208" s="2">
         <v>3050.1239999999998</v>
       </c>
-      <c r="C208" s="3">
+      <c r="C208" s="2">
         <v>16.45</v>
       </c>
-      <c r="D208" s="3">
+      <c r="D208" s="2">
         <v>1183</v>
       </c>
-      <c r="E208" s="3">
+      <c r="E208" s="2">
         <v>30.4</v>
       </c>
-      <c r="F208" s="3">
+      <c r="F208" s="2">
         <v>44.28</v>
       </c>
-      <c r="G208" s="3">
+      <c r="G208" s="2">
         <v>13.65</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
